--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1395"/>
+  <dimension ref="A1:R1397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7806,7 +7806,7 @@
         <v>1</v>
       </c>
       <c r="R131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -8646,7 +8646,7 @@
         <v>2</v>
       </c>
       <c r="R146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -9710,7 +9710,7 @@
         <v>1</v>
       </c>
       <c r="R165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -10102,7 +10102,7 @@
         <v>2</v>
       </c>
       <c r="R172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -10998,7 +10998,7 @@
         <v>1</v>
       </c>
       <c r="R188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -12790,7 +12790,7 @@
         <v>1</v>
       </c>
       <c r="R220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -13686,7 +13686,7 @@
         <v>1</v>
       </c>
       <c r="R236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -16206,7 +16206,7 @@
         <v>1</v>
       </c>
       <c r="R281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -20238,7 +20238,7 @@
         <v>2</v>
       </c>
       <c r="R353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354">
@@ -23598,7 +23598,7 @@
         <v>0</v>
       </c>
       <c r="R413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -24494,7 +24494,7 @@
         <v>0</v>
       </c>
       <c r="R429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -25726,7 +25726,7 @@
         <v>1</v>
       </c>
       <c r="R451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -26734,7 +26734,7 @@
         <v>2</v>
       </c>
       <c r="R469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470">
@@ -29310,7 +29310,7 @@
         <v>1</v>
       </c>
       <c r="R515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
@@ -29590,7 +29590,7 @@
         <v>2</v>
       </c>
       <c r="R520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521">
@@ -31550,7 +31550,7 @@
         <v>2</v>
       </c>
       <c r="R555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556">
@@ -32614,7 +32614,7 @@
         <v>2</v>
       </c>
       <c r="R574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575">
@@ -33342,7 +33342,7 @@
         <v>1</v>
       </c>
       <c r="R587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -35302,7 +35302,7 @@
         <v>0</v>
       </c>
       <c r="R622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623">
@@ -38718,7 +38718,7 @@
         <v>0</v>
       </c>
       <c r="R683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
@@ -41182,7 +41182,7 @@
         <v>0</v>
       </c>
       <c r="R727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728">
@@ -43534,7 +43534,7 @@
         <v>0</v>
       </c>
       <c r="R769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770">
@@ -51094,7 +51094,7 @@
         <v>0</v>
       </c>
       <c r="R904" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905">
@@ -51486,7 +51486,7 @@
         <v>2</v>
       </c>
       <c r="R911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912">
@@ -78077,7 +78077,7 @@
         <v>20</v>
       </c>
       <c r="O1386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1386" t="n">
         <v>0</v>
@@ -78589,7 +78589,117 @@
       <c r="Q1395" t="n">
         <v>0</v>
       </c>
-      <c r="R1395" t="inlineStr"/>
+      <c r="R1395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" s="2" t="n">
+        <v>45440</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>277.5</v>
+      </c>
+      <c r="C1396" t="n">
+        <v>280.5</v>
+      </c>
+      <c r="D1396" t="n">
+        <v>268.25</v>
+      </c>
+      <c r="E1396" t="n">
+        <v>270.8500061035156</v>
+      </c>
+      <c r="F1396" t="n">
+        <v>270.8500061035156</v>
+      </c>
+      <c r="G1396" t="n">
+        <v>8107909</v>
+      </c>
+      <c r="H1396" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1396" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1396" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1396" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1396" t="inlineStr"/>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>267</v>
+      </c>
+      <c r="C1397" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="D1397" t="n">
+        <v>263.75</v>
+      </c>
+      <c r="E1397" t="n">
+        <v>272.3500061035156</v>
+      </c>
+      <c r="F1397" t="n">
+        <v>272.3500061035156</v>
+      </c>
+      <c r="G1397" t="n">
+        <v>8535469</v>
+      </c>
+      <c r="H1397" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1397" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1397" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1397" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1397" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1398"/>
+  <dimension ref="A1:R1399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78757,7 +78757,63 @@
       <c r="Q1398" t="n">
         <v>0</v>
       </c>
-      <c r="R1398" t="inlineStr"/>
+      <c r="R1398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>270.5</v>
+      </c>
+      <c r="C1399" t="n">
+        <v>275.2000122070312</v>
+      </c>
+      <c r="D1399" t="n">
+        <v>262.1499938964844</v>
+      </c>
+      <c r="E1399" t="n">
+        <v>270.7999877929688</v>
+      </c>
+      <c r="F1399" t="n">
+        <v>270.7999877929688</v>
+      </c>
+      <c r="G1399" t="n">
+        <v>14805484</v>
+      </c>
+      <c r="H1399" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1399" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1399" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1399" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1399" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -78813,7 +78813,9 @@
       <c r="Q1399" t="n">
         <v>0</v>
       </c>
-      <c r="R1399" t="inlineStr"/>
+      <c r="R1399" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -78869,7 +78869,9 @@
       <c r="Q1400" t="n">
         <v>0</v>
       </c>
-      <c r="R1400" t="inlineStr"/>
+      <c r="R1400" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -79149,7 +79149,9 @@
       <c r="Q1405" t="n">
         <v>0</v>
       </c>
-      <c r="R1405" t="inlineStr"/>
+      <c r="R1405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1406">
       <c r="A1406" s="2" t="n">
@@ -79203,7 +79205,9 @@
       <c r="Q1406" t="n">
         <v>0</v>
       </c>
-      <c r="R1406" t="inlineStr"/>
+      <c r="R1406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1407">
       <c r="A1407" s="2" t="n">
@@ -79257,7 +79261,9 @@
       <c r="Q1407" t="n">
         <v>0</v>
       </c>
-      <c r="R1407" t="inlineStr"/>
+      <c r="R1407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1408">
       <c r="A1408" s="2" t="n">
@@ -79311,7 +79317,9 @@
       <c r="Q1408" t="n">
         <v>0</v>
       </c>
-      <c r="R1408" t="inlineStr"/>
+      <c r="R1408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1409">
       <c r="A1409" s="2" t="n">
@@ -79365,7 +79373,9 @@
       <c r="Q1409" t="n">
         <v>0</v>
       </c>
-      <c r="R1409" t="inlineStr"/>
+      <c r="R1409" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1409"/>
+  <dimension ref="A1:R1410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79377,6 +79377,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1410">
+      <c r="A1410" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B1410" t="n">
+        <v>272</v>
+      </c>
+      <c r="C1410" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="D1410" t="n">
+        <v>271.2000122070312</v>
+      </c>
+      <c r="E1410" t="n">
+        <v>273.9500122070312</v>
+      </c>
+      <c r="F1410" t="n">
+        <v>273.9500122070312</v>
+      </c>
+      <c r="G1410" t="n">
+        <v>13282978</v>
+      </c>
+      <c r="H1410" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1410" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1410" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1410" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1410" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1410"/>
+  <dimension ref="A1:R1411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79429,7 +79429,63 @@
       <c r="Q1410" t="n">
         <v>0</v>
       </c>
-      <c r="R1410" t="inlineStr"/>
+      <c r="R1410" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1411" t="n">
+        <v>274</v>
+      </c>
+      <c r="C1411" t="n">
+        <v>275.2999877929688</v>
+      </c>
+      <c r="D1411" t="n">
+        <v>263.25</v>
+      </c>
+      <c r="E1411" t="n">
+        <v>267.7999877929688</v>
+      </c>
+      <c r="F1411" t="n">
+        <v>267.7999877929688</v>
+      </c>
+      <c r="G1411" t="n">
+        <v>6968591</v>
+      </c>
+      <c r="H1411" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1411" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1411" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1411" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1411" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1411"/>
+  <dimension ref="A1:R1418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78973,7 +78973,7 @@
         <v>23</v>
       </c>
       <c r="O1402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1402" t="n">
         <v>0</v>
@@ -79485,7 +79485,387 @@
       <c r="Q1411" t="n">
         <v>0</v>
       </c>
-      <c r="R1411" t="inlineStr"/>
+      <c r="R1411" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1412" t="n">
+        <v>269.1499938964844</v>
+      </c>
+      <c r="C1412" t="n">
+        <v>270.9500122070312</v>
+      </c>
+      <c r="D1412" t="n">
+        <v>264</v>
+      </c>
+      <c r="E1412" t="n">
+        <v>267</v>
+      </c>
+      <c r="F1412" t="n">
+        <v>267</v>
+      </c>
+      <c r="G1412" t="n">
+        <v>5465629</v>
+      </c>
+      <c r="H1412" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1412" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1412" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1412" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1412" t="inlineStr"/>
+    </row>
+    <row r="1413">
+      <c r="A1413" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1413" t="n">
+        <v>266</v>
+      </c>
+      <c r="C1413" t="n">
+        <v>285.9500122070312</v>
+      </c>
+      <c r="D1413" t="n">
+        <v>266</v>
+      </c>
+      <c r="E1413" t="n">
+        <v>276.3999938964844</v>
+      </c>
+      <c r="F1413" t="n">
+        <v>276.3999938964844</v>
+      </c>
+      <c r="G1413" t="n">
+        <v>40578712</v>
+      </c>
+      <c r="H1413" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1413" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1413" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1413" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1413" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1413" t="inlineStr"/>
+    </row>
+    <row r="1414">
+      <c r="A1414" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1414" t="n">
+        <v>276</v>
+      </c>
+      <c r="C1414" t="n">
+        <v>287.5499877929688</v>
+      </c>
+      <c r="D1414" t="n">
+        <v>272.1000061035156</v>
+      </c>
+      <c r="E1414" t="n">
+        <v>279.4500122070312</v>
+      </c>
+      <c r="F1414" t="n">
+        <v>279.4500122070312</v>
+      </c>
+      <c r="G1414" t="n">
+        <v>15181132</v>
+      </c>
+      <c r="H1414" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1414" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1414" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1414" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1414" t="inlineStr"/>
+    </row>
+    <row r="1415">
+      <c r="A1415" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1415" t="n">
+        <v>280</v>
+      </c>
+      <c r="C1415" t="n">
+        <v>281.7000122070312</v>
+      </c>
+      <c r="D1415" t="n">
+        <v>270.3999938964844</v>
+      </c>
+      <c r="E1415" t="n">
+        <v>271.8999938964844</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>271.8999938964844</v>
+      </c>
+      <c r="G1415" t="n">
+        <v>8326504</v>
+      </c>
+      <c r="H1415" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1415" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1415" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1415" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1415" t="inlineStr"/>
+    </row>
+    <row r="1416">
+      <c r="A1416" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1416" t="n">
+        <v>272</v>
+      </c>
+      <c r="C1416" t="n">
+        <v>276</v>
+      </c>
+      <c r="D1416" t="n">
+        <v>268.7999877929688</v>
+      </c>
+      <c r="E1416" t="n">
+        <v>270.3999938964844</v>
+      </c>
+      <c r="F1416" t="n">
+        <v>270.3999938964844</v>
+      </c>
+      <c r="G1416" t="n">
+        <v>7105983</v>
+      </c>
+      <c r="H1416" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1416" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1416" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1416" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1416" t="inlineStr"/>
+    </row>
+    <row r="1417">
+      <c r="A1417" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1417" t="n">
+        <v>271.5499877929688</v>
+      </c>
+      <c r="C1417" t="n">
+        <v>275.4500122070312</v>
+      </c>
+      <c r="D1417" t="n">
+        <v>265.5499877929688</v>
+      </c>
+      <c r="E1417" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="F1417" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="G1417" t="n">
+        <v>7785256</v>
+      </c>
+      <c r="H1417" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1417" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1417" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1417" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1417" t="inlineStr"/>
+    </row>
+    <row r="1418">
+      <c r="A1418" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1418" t="n">
+        <v>270</v>
+      </c>
+      <c r="C1418" t="n">
+        <v>273.75</v>
+      </c>
+      <c r="D1418" t="n">
+        <v>267.5</v>
+      </c>
+      <c r="E1418" t="n">
+        <v>269.6499938964844</v>
+      </c>
+      <c r="F1418" t="n">
+        <v>269.6499938964844</v>
+      </c>
+      <c r="G1418" t="n">
+        <v>6579645</v>
+      </c>
+      <c r="H1418" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1418" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1418" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1418" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1418" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -79541,7 +79541,9 @@
       <c r="Q1412" t="n">
         <v>0</v>
       </c>
-      <c r="R1412" t="inlineStr"/>
+      <c r="R1412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1413">
       <c r="A1413" s="2" t="n">
@@ -79595,7 +79597,9 @@
       <c r="Q1413" t="n">
         <v>0</v>
       </c>
-      <c r="R1413" t="inlineStr"/>
+      <c r="R1413" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1414">
       <c r="A1414" s="2" t="n">
@@ -79649,7 +79653,9 @@
       <c r="Q1414" t="n">
         <v>0</v>
       </c>
-      <c r="R1414" t="inlineStr"/>
+      <c r="R1414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1415">
       <c r="A1415" s="2" t="n">
@@ -79703,7 +79709,9 @@
       <c r="Q1415" t="n">
         <v>0</v>
       </c>
-      <c r="R1415" t="inlineStr"/>
+      <c r="R1415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1416">
       <c r="A1416" s="2" t="n">
@@ -79757,7 +79765,9 @@
       <c r="Q1416" t="n">
         <v>0</v>
       </c>
-      <c r="R1416" t="inlineStr"/>
+      <c r="R1416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1417">
       <c r="A1417" s="2" t="n">
@@ -79811,7 +79821,9 @@
       <c r="Q1417" t="n">
         <v>0</v>
       </c>
-      <c r="R1417" t="inlineStr"/>
+      <c r="R1417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1418">
       <c r="A1418" s="2" t="n">
@@ -79865,7 +79877,9 @@
       <c r="Q1418" t="n">
         <v>0</v>
       </c>
-      <c r="R1418" t="inlineStr"/>
+      <c r="R1418" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1418"/>
+  <dimension ref="A1:R1423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79881,6 +79881,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1419">
+      <c r="A1419" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1419" t="n">
+        <v>269.7000122070312</v>
+      </c>
+      <c r="C1419" t="n">
+        <v>274.8999938964844</v>
+      </c>
+      <c r="D1419" t="n">
+        <v>267.7000122070312</v>
+      </c>
+      <c r="E1419" t="n">
+        <v>271.25</v>
+      </c>
+      <c r="F1419" t="n">
+        <v>271.25</v>
+      </c>
+      <c r="G1419" t="n">
+        <v>5532987</v>
+      </c>
+      <c r="H1419" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1419" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1419" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1419" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1419" t="inlineStr"/>
+    </row>
+    <row r="1420">
+      <c r="A1420" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1420" t="n">
+        <v>271.6000061035156</v>
+      </c>
+      <c r="C1420" t="n">
+        <v>277.6499938964844</v>
+      </c>
+      <c r="D1420" t="n">
+        <v>270.7000122070312</v>
+      </c>
+      <c r="E1420" t="n">
+        <v>275.2000122070312</v>
+      </c>
+      <c r="F1420" t="n">
+        <v>275.2000122070312</v>
+      </c>
+      <c r="G1420" t="n">
+        <v>9278295</v>
+      </c>
+      <c r="H1420" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1420" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1420" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1420" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1420" t="inlineStr"/>
+    </row>
+    <row r="1421">
+      <c r="A1421" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1421" t="n">
+        <v>276.6000061035156</v>
+      </c>
+      <c r="C1421" t="n">
+        <v>278.7999877929688</v>
+      </c>
+      <c r="D1421" t="n">
+        <v>273.9500122070312</v>
+      </c>
+      <c r="E1421" t="n">
+        <v>276.2999877929688</v>
+      </c>
+      <c r="F1421" t="n">
+        <v>276.2999877929688</v>
+      </c>
+      <c r="G1421" t="n">
+        <v>6450234</v>
+      </c>
+      <c r="H1421" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1421" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1421" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1421" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1421" t="inlineStr"/>
+    </row>
+    <row r="1422">
+      <c r="A1422" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1422" t="n">
+        <v>278</v>
+      </c>
+      <c r="C1422" t="n">
+        <v>284</v>
+      </c>
+      <c r="D1422" t="n">
+        <v>277.0499877929688</v>
+      </c>
+      <c r="E1422" t="n">
+        <v>279.75</v>
+      </c>
+      <c r="F1422" t="n">
+        <v>279.75</v>
+      </c>
+      <c r="G1422" t="n">
+        <v>11850880</v>
+      </c>
+      <c r="H1422" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1422" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1422" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1422" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1422" t="inlineStr"/>
+    </row>
+    <row r="1423">
+      <c r="A1423" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1423" t="n">
+        <v>288</v>
+      </c>
+      <c r="C1423" t="n">
+        <v>315.7999877929688</v>
+      </c>
+      <c r="D1423" t="n">
+        <v>286.5</v>
+      </c>
+      <c r="E1423" t="n">
+        <v>307.75</v>
+      </c>
+      <c r="F1423" t="n">
+        <v>307.75</v>
+      </c>
+      <c r="G1423" t="n">
+        <v>116572194</v>
+      </c>
+      <c r="H1423" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1423" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1423" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1423" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1423" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1423"/>
+  <dimension ref="A1:R1432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79933,7 +79933,9 @@
       <c r="Q1419" t="n">
         <v>0</v>
       </c>
-      <c r="R1419" t="inlineStr"/>
+      <c r="R1419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1420">
       <c r="A1420" s="2" t="n">
@@ -79987,7 +79989,9 @@
       <c r="Q1420" t="n">
         <v>0</v>
       </c>
-      <c r="R1420" t="inlineStr"/>
+      <c r="R1420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1421">
       <c r="A1421" s="2" t="n">
@@ -80041,7 +80045,9 @@
       <c r="Q1421" t="n">
         <v>0</v>
       </c>
-      <c r="R1421" t="inlineStr"/>
+      <c r="R1421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1422">
       <c r="A1422" s="2" t="n">
@@ -80095,7 +80101,9 @@
       <c r="Q1422" t="n">
         <v>0</v>
       </c>
-      <c r="R1422" t="inlineStr"/>
+      <c r="R1422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1423">
       <c r="A1423" s="2" t="n">
@@ -80149,7 +80157,495 @@
       <c r="Q1423" t="n">
         <v>0</v>
       </c>
-      <c r="R1423" t="inlineStr"/>
+      <c r="R1423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1424" t="n">
+        <v>311.8999938964844</v>
+      </c>
+      <c r="C1424" t="n">
+        <v>334.5</v>
+      </c>
+      <c r="D1424" t="n">
+        <v>310.75</v>
+      </c>
+      <c r="E1424" t="n">
+        <v>326.9500122070312</v>
+      </c>
+      <c r="F1424" t="n">
+        <v>326.9500122070312</v>
+      </c>
+      <c r="G1424" t="n">
+        <v>69690983</v>
+      </c>
+      <c r="H1424" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1424" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1424" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1424" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1424" t="inlineStr"/>
+    </row>
+    <row r="1425">
+      <c r="A1425" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1425" t="n">
+        <v>330.0499877929688</v>
+      </c>
+      <c r="C1425" t="n">
+        <v>336.7000122070312</v>
+      </c>
+      <c r="D1425" t="n">
+        <v>303.2000122070312</v>
+      </c>
+      <c r="E1425" t="n">
+        <v>312.6000061035156</v>
+      </c>
+      <c r="F1425" t="n">
+        <v>312.6000061035156</v>
+      </c>
+      <c r="G1425" t="n">
+        <v>37087245</v>
+      </c>
+      <c r="H1425" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1425" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1425" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1425" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1425" t="inlineStr"/>
+    </row>
+    <row r="1426">
+      <c r="A1426" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1426" t="n">
+        <v>315</v>
+      </c>
+      <c r="C1426" t="n">
+        <v>326.2999877929688</v>
+      </c>
+      <c r="D1426" t="n">
+        <v>306.5</v>
+      </c>
+      <c r="E1426" t="n">
+        <v>319.2999877929688</v>
+      </c>
+      <c r="F1426" t="n">
+        <v>319.2999877929688</v>
+      </c>
+      <c r="G1426" t="n">
+        <v>35028228</v>
+      </c>
+      <c r="H1426" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1426" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1426" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1426" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1426" t="inlineStr"/>
+    </row>
+    <row r="1427">
+      <c r="A1427" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1427" t="n">
+        <v>321.6000061035156</v>
+      </c>
+      <c r="C1427" t="n">
+        <v>324.7000122070312</v>
+      </c>
+      <c r="D1427" t="n">
+        <v>311.6000061035156</v>
+      </c>
+      <c r="E1427" t="n">
+        <v>319.8999938964844</v>
+      </c>
+      <c r="F1427" t="n">
+        <v>319.8999938964844</v>
+      </c>
+      <c r="G1427" t="n">
+        <v>20838354</v>
+      </c>
+      <c r="H1427" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1427" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1427" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1427" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1427" t="inlineStr"/>
+    </row>
+    <row r="1428">
+      <c r="A1428" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1428" t="n">
+        <v>321.5</v>
+      </c>
+      <c r="C1428" t="n">
+        <v>349.4500122070312</v>
+      </c>
+      <c r="D1428" t="n">
+        <v>319</v>
+      </c>
+      <c r="E1428" t="n">
+        <v>336.7999877929688</v>
+      </c>
+      <c r="F1428" t="n">
+        <v>336.7999877929688</v>
+      </c>
+      <c r="G1428" t="n">
+        <v>87655276</v>
+      </c>
+      <c r="H1428" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1428" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1428" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1428" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1428" t="inlineStr"/>
+    </row>
+    <row r="1429">
+      <c r="A1429" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1429" t="n">
+        <v>340.2000122070312</v>
+      </c>
+      <c r="C1429" t="n">
+        <v>351.6000061035156</v>
+      </c>
+      <c r="D1429" t="n">
+        <v>333</v>
+      </c>
+      <c r="E1429" t="n">
+        <v>335.4500122070312</v>
+      </c>
+      <c r="F1429" t="n">
+        <v>335.4500122070312</v>
+      </c>
+      <c r="G1429" t="n">
+        <v>24120169</v>
+      </c>
+      <c r="H1429" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1429" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1429" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1429" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1429" t="inlineStr"/>
+    </row>
+    <row r="1430">
+      <c r="A1430" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1430" t="n">
+        <v>336.2999877929688</v>
+      </c>
+      <c r="C1430" t="n">
+        <v>336.2999877929688</v>
+      </c>
+      <c r="D1430" t="n">
+        <v>322</v>
+      </c>
+      <c r="E1430" t="n">
+        <v>323.7999877929688</v>
+      </c>
+      <c r="F1430" t="n">
+        <v>323.7999877929688</v>
+      </c>
+      <c r="G1430" t="n">
+        <v>17704501</v>
+      </c>
+      <c r="H1430" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1430" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1430" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1430" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1430" t="inlineStr"/>
+    </row>
+    <row r="1431">
+      <c r="A1431" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1431" t="n">
+        <v>322.5</v>
+      </c>
+      <c r="C1431" t="n">
+        <v>323.2000122070312</v>
+      </c>
+      <c r="D1431" t="n">
+        <v>307.8999938964844</v>
+      </c>
+      <c r="E1431" t="n">
+        <v>312.7999877929688</v>
+      </c>
+      <c r="F1431" t="n">
+        <v>312.7999877929688</v>
+      </c>
+      <c r="G1431" t="n">
+        <v>16199861</v>
+      </c>
+      <c r="H1431" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1431" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1431" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1431" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1431" t="inlineStr"/>
+    </row>
+    <row r="1432">
+      <c r="A1432" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1432" t="n">
+        <v>309</v>
+      </c>
+      <c r="C1432" t="n">
+        <v>329.5</v>
+      </c>
+      <c r="D1432" t="n">
+        <v>304.6499938964844</v>
+      </c>
+      <c r="E1432" t="n">
+        <v>316.1000061035156</v>
+      </c>
+      <c r="F1432" t="n">
+        <v>316.1000061035156</v>
+      </c>
+      <c r="G1432" t="n">
+        <v>35540504</v>
+      </c>
+      <c r="H1432" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1432" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1432" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1432" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1432" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1432"/>
+  <dimension ref="A1:R1442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80213,7 +80213,9 @@
       <c r="Q1424" t="n">
         <v>0</v>
       </c>
-      <c r="R1424" t="inlineStr"/>
+      <c r="R1424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1425">
       <c r="A1425" s="2" t="n">
@@ -80267,7 +80269,9 @@
       <c r="Q1425" t="n">
         <v>0</v>
       </c>
-      <c r="R1425" t="inlineStr"/>
+      <c r="R1425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1426">
       <c r="A1426" s="2" t="n">
@@ -80321,7 +80325,9 @@
       <c r="Q1426" t="n">
         <v>0</v>
       </c>
-      <c r="R1426" t="inlineStr"/>
+      <c r="R1426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1427">
       <c r="A1427" s="2" t="n">
@@ -80375,7 +80381,9 @@
       <c r="Q1427" t="n">
         <v>0</v>
       </c>
-      <c r="R1427" t="inlineStr"/>
+      <c r="R1427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1428">
       <c r="A1428" s="2" t="n">
@@ -80429,7 +80437,9 @@
       <c r="Q1428" t="n">
         <v>0</v>
       </c>
-      <c r="R1428" t="inlineStr"/>
+      <c r="R1428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1429">
       <c r="A1429" s="2" t="n">
@@ -80475,7 +80485,7 @@
         <v>29</v>
       </c>
       <c r="O1429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1429" t="n">
         <v>0</v>
@@ -80483,7 +80493,9 @@
       <c r="Q1429" t="n">
         <v>0</v>
       </c>
-      <c r="R1429" t="inlineStr"/>
+      <c r="R1429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1430">
       <c r="A1430" s="2" t="n">
@@ -80537,7 +80549,9 @@
       <c r="Q1430" t="n">
         <v>0</v>
       </c>
-      <c r="R1430" t="inlineStr"/>
+      <c r="R1430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1431">
       <c r="A1431" s="2" t="n">
@@ -80591,7 +80605,9 @@
       <c r="Q1431" t="n">
         <v>0</v>
       </c>
-      <c r="R1431" t="inlineStr"/>
+      <c r="R1431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1432">
       <c r="A1432" s="2" t="n">
@@ -80645,7 +80661,549 @@
       <c r="Q1432" t="n">
         <v>0</v>
       </c>
-      <c r="R1432" t="inlineStr"/>
+      <c r="R1432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1433" t="n">
+        <v>316.1000061035156</v>
+      </c>
+      <c r="C1433" t="n">
+        <v>322.7999877929688</v>
+      </c>
+      <c r="D1433" t="n">
+        <v>308.5499877929688</v>
+      </c>
+      <c r="E1433" t="n">
+        <v>318.9500122070312</v>
+      </c>
+      <c r="F1433" t="n">
+        <v>318.9500122070312</v>
+      </c>
+      <c r="G1433" t="n">
+        <v>14899744</v>
+      </c>
+      <c r="H1433" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1433" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1433" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1433" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1433" t="inlineStr"/>
+    </row>
+    <row r="1434">
+      <c r="A1434" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1434" t="n">
+        <v>321.8500061035156</v>
+      </c>
+      <c r="C1434" t="n">
+        <v>327.9500122070312</v>
+      </c>
+      <c r="D1434" t="n">
+        <v>262</v>
+      </c>
+      <c r="E1434" t="n">
+        <v>293.25</v>
+      </c>
+      <c r="F1434" t="n">
+        <v>293.25</v>
+      </c>
+      <c r="G1434" t="n">
+        <v>49274362</v>
+      </c>
+      <c r="H1434" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1434" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1434" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1434" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1434" t="inlineStr"/>
+    </row>
+    <row r="1435">
+      <c r="A1435" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1435" t="n">
+        <v>294.75</v>
+      </c>
+      <c r="C1435" t="n">
+        <v>304.9500122070312</v>
+      </c>
+      <c r="D1435" t="n">
+        <v>291</v>
+      </c>
+      <c r="E1435" t="n">
+        <v>292.3999938964844</v>
+      </c>
+      <c r="F1435" t="n">
+        <v>292.3999938964844</v>
+      </c>
+      <c r="G1435" t="n">
+        <v>17445878</v>
+      </c>
+      <c r="H1435" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1435" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1435" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1435" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1435" t="inlineStr"/>
+    </row>
+    <row r="1436">
+      <c r="A1436" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1436" t="n">
+        <v>290</v>
+      </c>
+      <c r="C1436" t="n">
+        <v>290.8500061035156</v>
+      </c>
+      <c r="D1436" t="n">
+        <v>280</v>
+      </c>
+      <c r="E1436" t="n">
+        <v>280.7000122070312</v>
+      </c>
+      <c r="F1436" t="n">
+        <v>280.7000122070312</v>
+      </c>
+      <c r="G1436" t="n">
+        <v>13357470</v>
+      </c>
+      <c r="H1436" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1436" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1436" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1436" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1436" t="inlineStr"/>
+    </row>
+    <row r="1437">
+      <c r="A1437" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1437" t="n">
+        <v>282.3999938964844</v>
+      </c>
+      <c r="C1437" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="D1437" t="n">
+        <v>273</v>
+      </c>
+      <c r="E1437" t="n">
+        <v>274.6000061035156</v>
+      </c>
+      <c r="F1437" t="n">
+        <v>274.6000061035156</v>
+      </c>
+      <c r="G1437" t="n">
+        <v>15492024</v>
+      </c>
+      <c r="H1437" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1437" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1437" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1437" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1437" t="inlineStr"/>
+    </row>
+    <row r="1438">
+      <c r="A1438" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1438" t="n">
+        <v>277.3999938964844</v>
+      </c>
+      <c r="C1438" t="n">
+        <v>302.3999938964844</v>
+      </c>
+      <c r="D1438" t="n">
+        <v>277.2000122070312</v>
+      </c>
+      <c r="E1438" t="n">
+        <v>299.1000061035156</v>
+      </c>
+      <c r="F1438" t="n">
+        <v>299.1000061035156</v>
+      </c>
+      <c r="G1438" t="n">
+        <v>31430780</v>
+      </c>
+      <c r="H1438" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1438" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1438" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1438" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1438" t="inlineStr"/>
+    </row>
+    <row r="1439">
+      <c r="A1439" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1439" t="n">
+        <v>300.6000061035156</v>
+      </c>
+      <c r="C1439" t="n">
+        <v>301.6000061035156</v>
+      </c>
+      <c r="D1439" t="n">
+        <v>292</v>
+      </c>
+      <c r="E1439" t="n">
+        <v>295.1499938964844</v>
+      </c>
+      <c r="F1439" t="n">
+        <v>295.1499938964844</v>
+      </c>
+      <c r="G1439" t="n">
+        <v>12191752</v>
+      </c>
+      <c r="H1439" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1439" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1439" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1439" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1439" t="inlineStr"/>
+    </row>
+    <row r="1440">
+      <c r="A1440" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1440" t="n">
+        <v>295.4500122070312</v>
+      </c>
+      <c r="C1440" t="n">
+        <v>296.5</v>
+      </c>
+      <c r="D1440" t="n">
+        <v>288.0499877929688</v>
+      </c>
+      <c r="E1440" t="n">
+        <v>288.75</v>
+      </c>
+      <c r="F1440" t="n">
+        <v>288.75</v>
+      </c>
+      <c r="G1440" t="n">
+        <v>7124681</v>
+      </c>
+      <c r="H1440" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1440" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1440" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1440" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1440" t="inlineStr"/>
+    </row>
+    <row r="1441">
+      <c r="A1441" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1441" t="n">
+        <v>290</v>
+      </c>
+      <c r="C1441" t="n">
+        <v>291</v>
+      </c>
+      <c r="D1441" t="n">
+        <v>283.2999877929688</v>
+      </c>
+      <c r="E1441" t="n">
+        <v>287.1499938964844</v>
+      </c>
+      <c r="F1441" t="n">
+        <v>287.1499938964844</v>
+      </c>
+      <c r="G1441" t="n">
+        <v>5838251</v>
+      </c>
+      <c r="H1441" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1441" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1441" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1441" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1441" t="inlineStr"/>
+    </row>
+    <row r="1442">
+      <c r="A1442" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1442" t="n">
+        <v>279.25</v>
+      </c>
+      <c r="C1442" t="n">
+        <v>286.8999938964844</v>
+      </c>
+      <c r="D1442" t="n">
+        <v>278.25</v>
+      </c>
+      <c r="E1442" t="n">
+        <v>286</v>
+      </c>
+      <c r="F1442" t="n">
+        <v>286</v>
+      </c>
+      <c r="G1442" t="n">
+        <v>7317667</v>
+      </c>
+      <c r="H1442" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1442" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1442" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1442" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1442" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1442"/>
+  <dimension ref="A1:R1447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80717,7 +80717,9 @@
       <c r="Q1433" t="n">
         <v>0</v>
       </c>
-      <c r="R1433" t="inlineStr"/>
+      <c r="R1433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1434">
       <c r="A1434" s="2" t="n">
@@ -80771,7 +80773,9 @@
       <c r="Q1434" t="n">
         <v>0</v>
       </c>
-      <c r="R1434" t="inlineStr"/>
+      <c r="R1434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1435">
       <c r="A1435" s="2" t="n">
@@ -80825,7 +80829,9 @@
       <c r="Q1435" t="n">
         <v>0</v>
       </c>
-      <c r="R1435" t="inlineStr"/>
+      <c r="R1435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1436">
       <c r="A1436" s="2" t="n">
@@ -80879,7 +80885,9 @@
       <c r="Q1436" t="n">
         <v>0</v>
       </c>
-      <c r="R1436" t="inlineStr"/>
+      <c r="R1436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1437">
       <c r="A1437" s="2" t="n">
@@ -80933,7 +80941,9 @@
       <c r="Q1437" t="n">
         <v>0</v>
       </c>
-      <c r="R1437" t="inlineStr"/>
+      <c r="R1437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1438">
       <c r="A1438" s="2" t="n">
@@ -80987,7 +80997,9 @@
       <c r="Q1438" t="n">
         <v>0</v>
       </c>
-      <c r="R1438" t="inlineStr"/>
+      <c r="R1438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1439">
       <c r="A1439" s="2" t="n">
@@ -81041,7 +81053,9 @@
       <c r="Q1439" t="n">
         <v>0</v>
       </c>
-      <c r="R1439" t="inlineStr"/>
+      <c r="R1439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1440">
       <c r="A1440" s="2" t="n">
@@ -81095,7 +81109,9 @@
       <c r="Q1440" t="n">
         <v>0</v>
       </c>
-      <c r="R1440" t="inlineStr"/>
+      <c r="R1440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1441">
       <c r="A1441" s="2" t="n">
@@ -81149,7 +81165,9 @@
       <c r="Q1441" t="n">
         <v>0</v>
       </c>
-      <c r="R1441" t="inlineStr"/>
+      <c r="R1441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1442">
       <c r="A1442" s="2" t="n">
@@ -81203,7 +81221,279 @@
       <c r="Q1442" t="n">
         <v>0</v>
       </c>
-      <c r="R1442" t="inlineStr"/>
+      <c r="R1442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1443" t="n">
+        <v>271</v>
+      </c>
+      <c r="C1443" t="n">
+        <v>278.8500061035156</v>
+      </c>
+      <c r="D1443" t="n">
+        <v>265.75</v>
+      </c>
+      <c r="E1443" t="n">
+        <v>267.5</v>
+      </c>
+      <c r="F1443" t="n">
+        <v>267.5</v>
+      </c>
+      <c r="G1443" t="n">
+        <v>14487568</v>
+      </c>
+      <c r="H1443" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1443" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1443" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1443" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1443" t="inlineStr"/>
+    </row>
+    <row r="1444">
+      <c r="A1444" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1444" t="n">
+        <v>270.3500061035156</v>
+      </c>
+      <c r="C1444" t="n">
+        <v>278.8500061035156</v>
+      </c>
+      <c r="D1444" t="n">
+        <v>259.4500122070312</v>
+      </c>
+      <c r="E1444" t="n">
+        <v>261.0499877929688</v>
+      </c>
+      <c r="F1444" t="n">
+        <v>261.0499877929688</v>
+      </c>
+      <c r="G1444" t="n">
+        <v>10154359</v>
+      </c>
+      <c r="H1444" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1444" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1444" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1444" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1444" t="inlineStr"/>
+    </row>
+    <row r="1445">
+      <c r="A1445" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1445" t="n">
+        <v>270.2999877929688</v>
+      </c>
+      <c r="C1445" t="n">
+        <v>276.3999938964844</v>
+      </c>
+      <c r="D1445" t="n">
+        <v>261.5499877929688</v>
+      </c>
+      <c r="E1445" t="n">
+        <v>274.4500122070312</v>
+      </c>
+      <c r="F1445" t="n">
+        <v>274.4500122070312</v>
+      </c>
+      <c r="G1445" t="n">
+        <v>10558975</v>
+      </c>
+      <c r="H1445" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1445" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1445" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1445" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1445" t="inlineStr"/>
+    </row>
+    <row r="1446">
+      <c r="A1446" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1446" t="n">
+        <v>275</v>
+      </c>
+      <c r="C1446" t="n">
+        <v>283.5</v>
+      </c>
+      <c r="D1446" t="n">
+        <v>268.2000122070312</v>
+      </c>
+      <c r="E1446" t="n">
+        <v>269.9500122070312</v>
+      </c>
+      <c r="F1446" t="n">
+        <v>269.9500122070312</v>
+      </c>
+      <c r="G1446" t="n">
+        <v>14666412</v>
+      </c>
+      <c r="H1446" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1446" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1446" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1446" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1446" t="inlineStr"/>
+    </row>
+    <row r="1447">
+      <c r="A1447" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1447" t="n">
+        <v>271.9500122070312</v>
+      </c>
+      <c r="C1447" t="n">
+        <v>274.8999938964844</v>
+      </c>
+      <c r="D1447" t="n">
+        <v>263.5499877929688</v>
+      </c>
+      <c r="E1447" t="n">
+        <v>264.6000061035156</v>
+      </c>
+      <c r="F1447" t="n">
+        <v>264.6000061035156</v>
+      </c>
+      <c r="G1447" t="n">
+        <v>9267344</v>
+      </c>
+      <c r="H1447" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1447" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1447" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1447" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1447" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1447"/>
+  <dimension ref="A1:R1451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81277,7 +81277,9 @@
       <c r="Q1443" t="n">
         <v>0</v>
       </c>
-      <c r="R1443" t="inlineStr"/>
+      <c r="R1443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1444">
       <c r="A1444" s="2" t="n">
@@ -81331,7 +81333,9 @@
       <c r="Q1444" t="n">
         <v>0</v>
       </c>
-      <c r="R1444" t="inlineStr"/>
+      <c r="R1444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1445">
       <c r="A1445" s="2" t="n">
@@ -81385,7 +81389,9 @@
       <c r="Q1445" t="n">
         <v>0</v>
       </c>
-      <c r="R1445" t="inlineStr"/>
+      <c r="R1445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1446">
       <c r="A1446" s="2" t="n">
@@ -81439,7 +81445,9 @@
       <c r="Q1446" t="n">
         <v>0</v>
       </c>
-      <c r="R1446" t="inlineStr"/>
+      <c r="R1446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1447">
       <c r="A1447" s="2" t="n">
@@ -81493,7 +81501,225 @@
       <c r="Q1447" t="n">
         <v>0</v>
       </c>
-      <c r="R1447" t="inlineStr"/>
+      <c r="R1447" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1448" t="n">
+        <v>264.5499877929688</v>
+      </c>
+      <c r="C1448" t="n">
+        <v>276.6000061035156</v>
+      </c>
+      <c r="D1448" t="n">
+        <v>259.1499938964844</v>
+      </c>
+      <c r="E1448" t="n">
+        <v>272.1000061035156</v>
+      </c>
+      <c r="F1448" t="n">
+        <v>272.1000061035156</v>
+      </c>
+      <c r="G1448" t="n">
+        <v>19226912</v>
+      </c>
+      <c r="H1448" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1448" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1448" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1448" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1448" t="inlineStr"/>
+    </row>
+    <row r="1449">
+      <c r="A1449" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1449" t="n">
+        <v>273.8999938964844</v>
+      </c>
+      <c r="C1449" t="n">
+        <v>277</v>
+      </c>
+      <c r="D1449" t="n">
+        <v>265.5499877929688</v>
+      </c>
+      <c r="E1449" t="n">
+        <v>268.2000122070312</v>
+      </c>
+      <c r="F1449" t="n">
+        <v>268.2000122070312</v>
+      </c>
+      <c r="G1449" t="n">
+        <v>7741106</v>
+      </c>
+      <c r="H1449" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1449" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1449" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1449" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1449" t="inlineStr"/>
+    </row>
+    <row r="1450">
+      <c r="A1450" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1450" t="n">
+        <v>268.2000122070312</v>
+      </c>
+      <c r="C1450" t="n">
+        <v>269.1499938964844</v>
+      </c>
+      <c r="D1450" t="n">
+        <v>259.6499938964844</v>
+      </c>
+      <c r="E1450" t="n">
+        <v>262.0499877929688</v>
+      </c>
+      <c r="F1450" t="n">
+        <v>262.0499877929688</v>
+      </c>
+      <c r="G1450" t="n">
+        <v>5373640</v>
+      </c>
+      <c r="H1450" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1450" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1450" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1450" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1450" t="inlineStr"/>
+    </row>
+    <row r="1451">
+      <c r="A1451" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1451" t="n">
+        <v>265.7999877929688</v>
+      </c>
+      <c r="C1451" t="n">
+        <v>270.25</v>
+      </c>
+      <c r="D1451" t="n">
+        <v>264.75</v>
+      </c>
+      <c r="E1451" t="n">
+        <v>266.7999877929688</v>
+      </c>
+      <c r="F1451" t="n">
+        <v>266.7999877929688</v>
+      </c>
+      <c r="G1451" t="n">
+        <v>4696677</v>
+      </c>
+      <c r="H1451" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1451" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1451" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1451" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1451" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1451"/>
+  <dimension ref="A1:R1456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81557,7 +81557,9 @@
       <c r="Q1448" t="n">
         <v>0</v>
       </c>
-      <c r="R1448" t="inlineStr"/>
+      <c r="R1448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1449">
       <c r="A1449" s="2" t="n">
@@ -81611,7 +81613,9 @@
       <c r="Q1449" t="n">
         <v>0</v>
       </c>
-      <c r="R1449" t="inlineStr"/>
+      <c r="R1449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1450">
       <c r="A1450" s="2" t="n">
@@ -81665,7 +81669,9 @@
       <c r="Q1450" t="n">
         <v>0</v>
       </c>
-      <c r="R1450" t="inlineStr"/>
+      <c r="R1450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1451">
       <c r="A1451" s="2" t="n">
@@ -81719,7 +81725,279 @@
       <c r="Q1451" t="n">
         <v>0</v>
       </c>
-      <c r="R1451" t="inlineStr"/>
+      <c r="R1451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1452" t="n">
+        <v>269.8999938964844</v>
+      </c>
+      <c r="C1452" t="n">
+        <v>273.7999877929688</v>
+      </c>
+      <c r="D1452" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="E1452" t="n">
+        <v>269.7999877929688</v>
+      </c>
+      <c r="F1452" t="n">
+        <v>269.7999877929688</v>
+      </c>
+      <c r="G1452" t="n">
+        <v>4443127</v>
+      </c>
+      <c r="H1452" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1452" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1452" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1452" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1452" t="inlineStr"/>
+    </row>
+    <row r="1453">
+      <c r="A1453" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1453" t="n">
+        <v>270.8999938964844</v>
+      </c>
+      <c r="C1453" t="n">
+        <v>270.8999938964844</v>
+      </c>
+      <c r="D1453" t="n">
+        <v>265.6000061035156</v>
+      </c>
+      <c r="E1453" t="n">
+        <v>266</v>
+      </c>
+      <c r="F1453" t="n">
+        <v>266</v>
+      </c>
+      <c r="G1453" t="n">
+        <v>3224476</v>
+      </c>
+      <c r="H1453" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1453" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1453" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1453" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1453" t="inlineStr"/>
+    </row>
+    <row r="1454">
+      <c r="A1454" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1454" t="n">
+        <v>265.7999877929688</v>
+      </c>
+      <c r="C1454" t="n">
+        <v>268.9500122070312</v>
+      </c>
+      <c r="D1454" t="n">
+        <v>263.3500061035156</v>
+      </c>
+      <c r="E1454" t="n">
+        <v>264.7000122070312</v>
+      </c>
+      <c r="F1454" t="n">
+        <v>264.7000122070312</v>
+      </c>
+      <c r="G1454" t="n">
+        <v>3771309</v>
+      </c>
+      <c r="H1454" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1454" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1454" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1454" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1454" t="inlineStr"/>
+    </row>
+    <row r="1455">
+      <c r="A1455" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1455" t="n">
+        <v>266.2999877929688</v>
+      </c>
+      <c r="C1455" t="n">
+        <v>268</v>
+      </c>
+      <c r="D1455" t="n">
+        <v>265</v>
+      </c>
+      <c r="E1455" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="F1455" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="G1455" t="n">
+        <v>2873571</v>
+      </c>
+      <c r="H1455" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1455" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1455" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1455" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1455" t="inlineStr"/>
+    </row>
+    <row r="1456">
+      <c r="A1456" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1456" t="n">
+        <v>266.2999877929688</v>
+      </c>
+      <c r="C1456" t="n">
+        <v>273.2000122070312</v>
+      </c>
+      <c r="D1456" t="n">
+        <v>264.6000061035156</v>
+      </c>
+      <c r="E1456" t="n">
+        <v>265.6000061035156</v>
+      </c>
+      <c r="F1456" t="n">
+        <v>265.6000061035156</v>
+      </c>
+      <c r="G1456" t="n">
+        <v>8119535</v>
+      </c>
+      <c r="H1456" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1456" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1456" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1456" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1456" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1456"/>
+  <dimension ref="A1:R1461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81549,7 +81549,7 @@
         <v>33</v>
       </c>
       <c r="O1448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1448" t="n">
         <v>0</v>
@@ -81781,7 +81781,9 @@
       <c r="Q1452" t="n">
         <v>0</v>
       </c>
-      <c r="R1452" t="inlineStr"/>
+      <c r="R1452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1453">
       <c r="A1453" s="2" t="n">
@@ -81835,7 +81837,9 @@
       <c r="Q1453" t="n">
         <v>0</v>
       </c>
-      <c r="R1453" t="inlineStr"/>
+      <c r="R1453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1454">
       <c r="A1454" s="2" t="n">
@@ -81889,7 +81893,9 @@
       <c r="Q1454" t="n">
         <v>0</v>
       </c>
-      <c r="R1454" t="inlineStr"/>
+      <c r="R1454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1455">
       <c r="A1455" s="2" t="n">
@@ -81943,7 +81949,9 @@
       <c r="Q1455" t="n">
         <v>0</v>
       </c>
-      <c r="R1455" t="inlineStr"/>
+      <c r="R1455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1456">
       <c r="A1456" s="2" t="n">
@@ -81997,7 +82005,279 @@
       <c r="Q1456" t="n">
         <v>0</v>
       </c>
-      <c r="R1456" t="inlineStr"/>
+      <c r="R1456" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1457" t="n">
+        <v>267</v>
+      </c>
+      <c r="C1457" t="n">
+        <v>267.3500061035156</v>
+      </c>
+      <c r="D1457" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="E1457" t="n">
+        <v>264.6000061035156</v>
+      </c>
+      <c r="F1457" t="n">
+        <v>264.6000061035156</v>
+      </c>
+      <c r="G1457" t="n">
+        <v>3404950</v>
+      </c>
+      <c r="H1457" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1457" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1457" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1457" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1457" t="inlineStr"/>
+    </row>
+    <row r="1458">
+      <c r="A1458" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1458" t="n">
+        <v>264.6000061035156</v>
+      </c>
+      <c r="C1458" t="n">
+        <v>267.8500061035156</v>
+      </c>
+      <c r="D1458" t="n">
+        <v>262.0499877929688</v>
+      </c>
+      <c r="E1458" t="n">
+        <v>263.3500061035156</v>
+      </c>
+      <c r="F1458" t="n">
+        <v>263.3500061035156</v>
+      </c>
+      <c r="G1458" t="n">
+        <v>3751987</v>
+      </c>
+      <c r="H1458" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1458" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1458" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1458" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1458" t="inlineStr"/>
+    </row>
+    <row r="1459">
+      <c r="A1459" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1459" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="C1459" t="n">
+        <v>266.4500122070312</v>
+      </c>
+      <c r="D1459" t="n">
+        <v>263.1499938964844</v>
+      </c>
+      <c r="E1459" t="n">
+        <v>264.4500122070312</v>
+      </c>
+      <c r="F1459" t="n">
+        <v>264.4500122070312</v>
+      </c>
+      <c r="G1459" t="n">
+        <v>3340343</v>
+      </c>
+      <c r="H1459" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1459" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1459" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1459" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1459" t="inlineStr"/>
+    </row>
+    <row r="1460">
+      <c r="A1460" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1460" t="n">
+        <v>265.3999938964844</v>
+      </c>
+      <c r="C1460" t="n">
+        <v>266.7000122070312</v>
+      </c>
+      <c r="D1460" t="n">
+        <v>262</v>
+      </c>
+      <c r="E1460" t="n">
+        <v>263</v>
+      </c>
+      <c r="F1460" t="n">
+        <v>263</v>
+      </c>
+      <c r="G1460" t="n">
+        <v>3077103</v>
+      </c>
+      <c r="H1460" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1460" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1460" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1460" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1460" t="inlineStr"/>
+    </row>
+    <row r="1461">
+      <c r="A1461" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1461" t="n">
+        <v>264.0499877929688</v>
+      </c>
+      <c r="C1461" t="n">
+        <v>265.7999877929688</v>
+      </c>
+      <c r="D1461" t="n">
+        <v>260</v>
+      </c>
+      <c r="E1461" t="n">
+        <v>261.1000061035156</v>
+      </c>
+      <c r="F1461" t="n">
+        <v>261.1000061035156</v>
+      </c>
+      <c r="G1461" t="n">
+        <v>4764363</v>
+      </c>
+      <c r="H1461" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1461" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1461" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1461" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1461" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1461"/>
+  <dimension ref="A1:R1466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82061,7 +82061,9 @@
       <c r="Q1457" t="n">
         <v>0</v>
       </c>
-      <c r="R1457" t="inlineStr"/>
+      <c r="R1457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1458">
       <c r="A1458" s="2" t="n">
@@ -82115,7 +82117,9 @@
       <c r="Q1458" t="n">
         <v>0</v>
       </c>
-      <c r="R1458" t="inlineStr"/>
+      <c r="R1458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1459">
       <c r="A1459" s="2" t="n">
@@ -82169,7 +82173,9 @@
       <c r="Q1459" t="n">
         <v>0</v>
       </c>
-      <c r="R1459" t="inlineStr"/>
+      <c r="R1459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1460">
       <c r="A1460" s="2" t="n">
@@ -82223,7 +82229,9 @@
       <c r="Q1460" t="n">
         <v>0</v>
       </c>
-      <c r="R1460" t="inlineStr"/>
+      <c r="R1460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1461">
       <c r="A1461" s="2" t="n">
@@ -82277,7 +82285,279 @@
       <c r="Q1461" t="n">
         <v>0</v>
       </c>
-      <c r="R1461" t="inlineStr"/>
+      <c r="R1461" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1462" t="n">
+        <v>262</v>
+      </c>
+      <c r="C1462" t="n">
+        <v>263.2000122070312</v>
+      </c>
+      <c r="D1462" t="n">
+        <v>255.5</v>
+      </c>
+      <c r="E1462" t="n">
+        <v>256.8500061035156</v>
+      </c>
+      <c r="F1462" t="n">
+        <v>255.5472106933594</v>
+      </c>
+      <c r="G1462" t="n">
+        <v>4502737</v>
+      </c>
+      <c r="H1462" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1462" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1462" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1462" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1462" t="inlineStr"/>
+    </row>
+    <row r="1463">
+      <c r="A1463" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1463" t="n">
+        <v>257</v>
+      </c>
+      <c r="C1463" t="n">
+        <v>259.75</v>
+      </c>
+      <c r="D1463" t="n">
+        <v>254.1499938964844</v>
+      </c>
+      <c r="E1463" t="n">
+        <v>256</v>
+      </c>
+      <c r="F1463" t="n">
+        <v>254.7015228271484</v>
+      </c>
+      <c r="G1463" t="n">
+        <v>4475218</v>
+      </c>
+      <c r="H1463" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1463" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1463" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1463" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1463" t="inlineStr"/>
+    </row>
+    <row r="1464">
+      <c r="A1464" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1464" t="n">
+        <v>253.3000030517578</v>
+      </c>
+      <c r="C1464" t="n">
+        <v>262</v>
+      </c>
+      <c r="D1464" t="n">
+        <v>252</v>
+      </c>
+      <c r="E1464" t="n">
+        <v>256.2999877929688</v>
+      </c>
+      <c r="F1464" t="n">
+        <v>254.9999847412109</v>
+      </c>
+      <c r="G1464" t="n">
+        <v>4202549</v>
+      </c>
+      <c r="H1464" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1464" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1464" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1464" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1464" t="inlineStr"/>
+    </row>
+    <row r="1465">
+      <c r="A1465" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1465" t="n">
+        <v>256.8500061035156</v>
+      </c>
+      <c r="C1465" t="n">
+        <v>257.3999938964844</v>
+      </c>
+      <c r="D1465" t="n">
+        <v>252</v>
+      </c>
+      <c r="E1465" t="n">
+        <v>252.5</v>
+      </c>
+      <c r="F1465" t="n">
+        <v>252.5</v>
+      </c>
+      <c r="G1465" t="n">
+        <v>3008514</v>
+      </c>
+      <c r="H1465" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1465" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1465" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1465" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1465" t="inlineStr"/>
+    </row>
+    <row r="1466">
+      <c r="A1466" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1466" t="n">
+        <v>252.3500061035156</v>
+      </c>
+      <c r="C1466" t="n">
+        <v>253.4499969482422</v>
+      </c>
+      <c r="D1466" t="n">
+        <v>243.3000030517578</v>
+      </c>
+      <c r="E1466" t="n">
+        <v>246.1499938964844</v>
+      </c>
+      <c r="F1466" t="n">
+        <v>246.1499938964844</v>
+      </c>
+      <c r="G1466" t="n">
+        <v>5704618</v>
+      </c>
+      <c r="H1466" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1466" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1466" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1466" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1466" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1466"/>
+  <dimension ref="A1:R1471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82341,7 +82341,9 @@
       <c r="Q1462" t="n">
         <v>0</v>
       </c>
-      <c r="R1462" t="inlineStr"/>
+      <c r="R1462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1463">
       <c r="A1463" s="2" t="n">
@@ -82395,7 +82397,9 @@
       <c r="Q1463" t="n">
         <v>0</v>
       </c>
-      <c r="R1463" t="inlineStr"/>
+      <c r="R1463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1464">
       <c r="A1464" s="2" t="n">
@@ -82449,7 +82453,9 @@
       <c r="Q1464" t="n">
         <v>0</v>
       </c>
-      <c r="R1464" t="inlineStr"/>
+      <c r="R1464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1465">
       <c r="A1465" s="2" t="n">
@@ -82503,7 +82509,9 @@
       <c r="Q1465" t="n">
         <v>0</v>
       </c>
-      <c r="R1465" t="inlineStr"/>
+      <c r="R1465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1466">
       <c r="A1466" s="2" t="n">
@@ -82557,7 +82565,279 @@
       <c r="Q1466" t="n">
         <v>0</v>
       </c>
-      <c r="R1466" t="inlineStr"/>
+      <c r="R1466" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1467" t="n">
+        <v>245</v>
+      </c>
+      <c r="C1467" t="n">
+        <v>245</v>
+      </c>
+      <c r="D1467" t="n">
+        <v>237.8000030517578</v>
+      </c>
+      <c r="E1467" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="F1467" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="G1467" t="n">
+        <v>5535832</v>
+      </c>
+      <c r="H1467" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1467" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1467" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1467" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1467" t="inlineStr"/>
+    </row>
+    <row r="1468">
+      <c r="A1468" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1468" t="n">
+        <v>241.3999938964844</v>
+      </c>
+      <c r="C1468" t="n">
+        <v>245.25</v>
+      </c>
+      <c r="D1468" t="n">
+        <v>241.1000061035156</v>
+      </c>
+      <c r="E1468" t="n">
+        <v>244.3000030517578</v>
+      </c>
+      <c r="F1468" t="n">
+        <v>244.3000030517578</v>
+      </c>
+      <c r="G1468" t="n">
+        <v>2440527</v>
+      </c>
+      <c r="H1468" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1468" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1468" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1468" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1468" t="inlineStr"/>
+    </row>
+    <row r="1469">
+      <c r="A1469" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1469" t="n">
+        <v>245.3500061035156</v>
+      </c>
+      <c r="C1469" t="n">
+        <v>245.5500030517578</v>
+      </c>
+      <c r="D1469" t="n">
+        <v>237</v>
+      </c>
+      <c r="E1469" t="n">
+        <v>238.1000061035156</v>
+      </c>
+      <c r="F1469" t="n">
+        <v>238.1000061035156</v>
+      </c>
+      <c r="G1469" t="n">
+        <v>2816444</v>
+      </c>
+      <c r="H1469" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1469" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1469" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1469" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1469" t="inlineStr"/>
+    </row>
+    <row r="1470">
+      <c r="A1470" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1470" t="n">
+        <v>239.3000030517578</v>
+      </c>
+      <c r="C1470" t="n">
+        <v>240.8999938964844</v>
+      </c>
+      <c r="D1470" t="n">
+        <v>234.6000061035156</v>
+      </c>
+      <c r="E1470" t="n">
+        <v>239.6999969482422</v>
+      </c>
+      <c r="F1470" t="n">
+        <v>239.6999969482422</v>
+      </c>
+      <c r="G1470" t="n">
+        <v>4397882</v>
+      </c>
+      <c r="H1470" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1470" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1470" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1470" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1470" t="inlineStr"/>
+    </row>
+    <row r="1471">
+      <c r="A1471" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1471" t="n">
+        <v>240.4499969482422</v>
+      </c>
+      <c r="C1471" t="n">
+        <v>249.3500061035156</v>
+      </c>
+      <c r="D1471" t="n">
+        <v>239.0500030517578</v>
+      </c>
+      <c r="E1471" t="n">
+        <v>244.9499969482422</v>
+      </c>
+      <c r="F1471" t="n">
+        <v>244.9499969482422</v>
+      </c>
+      <c r="G1471" t="n">
+        <v>5834537</v>
+      </c>
+      <c r="H1471" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1471" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1471" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1471" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1471" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1471"/>
+  <dimension ref="A1:R1476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82621,7 +82621,9 @@
       <c r="Q1467" t="n">
         <v>0</v>
       </c>
-      <c r="R1467" t="inlineStr"/>
+      <c r="R1467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1468">
       <c r="A1468" s="2" t="n">
@@ -82675,7 +82677,9 @@
       <c r="Q1468" t="n">
         <v>0</v>
       </c>
-      <c r="R1468" t="inlineStr"/>
+      <c r="R1468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1469">
       <c r="A1469" s="2" t="n">
@@ -82729,7 +82733,9 @@
       <c r="Q1469" t="n">
         <v>0</v>
       </c>
-      <c r="R1469" t="inlineStr"/>
+      <c r="R1469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1470">
       <c r="A1470" s="2" t="n">
@@ -82783,7 +82789,9 @@
       <c r="Q1470" t="n">
         <v>0</v>
       </c>
-      <c r="R1470" t="inlineStr"/>
+      <c r="R1470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1471">
       <c r="A1471" s="2" t="n">
@@ -82837,7 +82845,279 @@
       <c r="Q1471" t="n">
         <v>0</v>
       </c>
-      <c r="R1471" t="inlineStr"/>
+      <c r="R1471" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1472" t="n">
+        <v>245.3500061035156</v>
+      </c>
+      <c r="C1472" t="n">
+        <v>245.3500061035156</v>
+      </c>
+      <c r="D1472" t="n">
+        <v>239.3999938964844</v>
+      </c>
+      <c r="E1472" t="n">
+        <v>239.9499969482422</v>
+      </c>
+      <c r="F1472" t="n">
+        <v>239.9499969482422</v>
+      </c>
+      <c r="G1472" t="n">
+        <v>2712516</v>
+      </c>
+      <c r="H1472" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1472" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1472" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1472" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1472" t="inlineStr"/>
+    </row>
+    <row r="1473">
+      <c r="A1473" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1473" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="C1473" t="n">
+        <v>240.6000061035156</v>
+      </c>
+      <c r="D1473" t="n">
+        <v>231</v>
+      </c>
+      <c r="E1473" t="n">
+        <v>231.75</v>
+      </c>
+      <c r="F1473" t="n">
+        <v>231.75</v>
+      </c>
+      <c r="G1473" t="n">
+        <v>4650778</v>
+      </c>
+      <c r="H1473" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1473" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1473" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1473" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1473" t="inlineStr"/>
+    </row>
+    <row r="1474">
+      <c r="A1474" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1474" t="n">
+        <v>232</v>
+      </c>
+      <c r="C1474" t="n">
+        <v>235.9499969482422</v>
+      </c>
+      <c r="D1474" t="n">
+        <v>225.3999938964844</v>
+      </c>
+      <c r="E1474" t="n">
+        <v>227</v>
+      </c>
+      <c r="F1474" t="n">
+        <v>227</v>
+      </c>
+      <c r="G1474" t="n">
+        <v>5223330</v>
+      </c>
+      <c r="H1474" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1474" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1474" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1474" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1474" t="inlineStr"/>
+    </row>
+    <row r="1475">
+      <c r="A1475" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1475" t="n">
+        <v>228.25</v>
+      </c>
+      <c r="C1475" t="n">
+        <v>230.8000030517578</v>
+      </c>
+      <c r="D1475" t="n">
+        <v>218.1499938964844</v>
+      </c>
+      <c r="E1475" t="n">
+        <v>223.6499938964844</v>
+      </c>
+      <c r="F1475" t="n">
+        <v>223.6499938964844</v>
+      </c>
+      <c r="G1475" t="n">
+        <v>7195339</v>
+      </c>
+      <c r="H1475" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1475" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1475" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1475" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1475" t="inlineStr"/>
+    </row>
+    <row r="1476">
+      <c r="A1476" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1476" t="n">
+        <v>224.8999938964844</v>
+      </c>
+      <c r="C1476" t="n">
+        <v>240.6000061035156</v>
+      </c>
+      <c r="D1476" t="n">
+        <v>222.3000030517578</v>
+      </c>
+      <c r="E1476" t="n">
+        <v>232.6000061035156</v>
+      </c>
+      <c r="F1476" t="n">
+        <v>232.6000061035156</v>
+      </c>
+      <c r="G1476" t="n">
+        <v>15412325</v>
+      </c>
+      <c r="H1476" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1476" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1476" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1476" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1476" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1476"/>
+  <dimension ref="A1:R1481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82901,7 +82901,9 @@
       <c r="Q1472" t="n">
         <v>0</v>
       </c>
-      <c r="R1472" t="inlineStr"/>
+      <c r="R1472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1473">
       <c r="A1473" s="2" t="n">
@@ -82955,7 +82957,9 @@
       <c r="Q1473" t="n">
         <v>0</v>
       </c>
-      <c r="R1473" t="inlineStr"/>
+      <c r="R1473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1474">
       <c r="A1474" s="2" t="n">
@@ -83009,7 +83013,9 @@
       <c r="Q1474" t="n">
         <v>0</v>
       </c>
-      <c r="R1474" t="inlineStr"/>
+      <c r="R1474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1475">
       <c r="A1475" s="2" t="n">
@@ -83063,7 +83069,9 @@
       <c r="Q1475" t="n">
         <v>0</v>
       </c>
-      <c r="R1475" t="inlineStr"/>
+      <c r="R1475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1476">
       <c r="A1476" s="2" t="n">
@@ -83117,7 +83125,279 @@
       <c r="Q1476" t="n">
         <v>0</v>
       </c>
-      <c r="R1476" t="inlineStr"/>
+      <c r="R1476" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1477" t="n">
+        <v>234.1499938964844</v>
+      </c>
+      <c r="C1477" t="n">
+        <v>234.4499969482422</v>
+      </c>
+      <c r="D1477" t="n">
+        <v>229.1999969482422</v>
+      </c>
+      <c r="E1477" t="n">
+        <v>231.0500030517578</v>
+      </c>
+      <c r="F1477" t="n">
+        <v>231.0500030517578</v>
+      </c>
+      <c r="G1477" t="n">
+        <v>3848740</v>
+      </c>
+      <c r="H1477" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1477" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1477" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1477" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1477" t="inlineStr"/>
+    </row>
+    <row r="1478">
+      <c r="A1478" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1478" t="n">
+        <v>230.1000061035156</v>
+      </c>
+      <c r="C1478" t="n">
+        <v>233.3999938964844</v>
+      </c>
+      <c r="D1478" t="n">
+        <v>226.3999938964844</v>
+      </c>
+      <c r="E1478" t="n">
+        <v>227.3999938964844</v>
+      </c>
+      <c r="F1478" t="n">
+        <v>227.3999938964844</v>
+      </c>
+      <c r="G1478" t="n">
+        <v>5653995</v>
+      </c>
+      <c r="H1478" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1478" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1478" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1478" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1478" t="inlineStr"/>
+    </row>
+    <row r="1479">
+      <c r="A1479" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1479" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="C1479" t="n">
+        <v>231</v>
+      </c>
+      <c r="D1479" t="n">
+        <v>224.1999969482422</v>
+      </c>
+      <c r="E1479" t="n">
+        <v>226.25</v>
+      </c>
+      <c r="F1479" t="n">
+        <v>226.25</v>
+      </c>
+      <c r="G1479" t="n">
+        <v>3485987</v>
+      </c>
+      <c r="H1479" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1479" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1479" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1479" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1479" t="inlineStr"/>
+    </row>
+    <row r="1480">
+      <c r="A1480" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1480" t="n">
+        <v>227</v>
+      </c>
+      <c r="C1480" t="n">
+        <v>229.3000030517578</v>
+      </c>
+      <c r="D1480" t="n">
+        <v>222</v>
+      </c>
+      <c r="E1480" t="n">
+        <v>224.8000030517578</v>
+      </c>
+      <c r="F1480" t="n">
+        <v>224.8000030517578</v>
+      </c>
+      <c r="G1480" t="n">
+        <v>4627250</v>
+      </c>
+      <c r="H1480" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1480" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1480" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1480" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1480" t="inlineStr"/>
+    </row>
+    <row r="1481">
+      <c r="A1481" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1481" t="n">
+        <v>225</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>230.3999938964844</v>
+      </c>
+      <c r="D1481" t="n">
+        <v>225</v>
+      </c>
+      <c r="E1481" t="n">
+        <v>227.3500061035156</v>
+      </c>
+      <c r="F1481" t="n">
+        <v>227.3500061035156</v>
+      </c>
+      <c r="G1481" t="n">
+        <v>3720880</v>
+      </c>
+      <c r="H1481" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1481" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1481" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1481" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1481" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1481"/>
+  <dimension ref="A1:R1485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83181,7 +83181,9 @@
       <c r="Q1477" t="n">
         <v>0</v>
       </c>
-      <c r="R1477" t="inlineStr"/>
+      <c r="R1477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1478">
       <c r="A1478" s="2" t="n">
@@ -83235,7 +83237,9 @@
       <c r="Q1478" t="n">
         <v>0</v>
       </c>
-      <c r="R1478" t="inlineStr"/>
+      <c r="R1478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1479">
       <c r="A1479" s="2" t="n">
@@ -83289,7 +83293,9 @@
       <c r="Q1479" t="n">
         <v>0</v>
       </c>
-      <c r="R1479" t="inlineStr"/>
+      <c r="R1479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1480">
       <c r="A1480" s="2" t="n">
@@ -83343,7 +83349,9 @@
       <c r="Q1480" t="n">
         <v>0</v>
       </c>
-      <c r="R1480" t="inlineStr"/>
+      <c r="R1480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1481">
       <c r="A1481" s="2" t="n">
@@ -83397,7 +83405,225 @@
       <c r="Q1481" t="n">
         <v>0</v>
       </c>
-      <c r="R1481" t="inlineStr"/>
+      <c r="R1481" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1482" t="n">
+        <v>226.9499969482422</v>
+      </c>
+      <c r="C1482" t="n">
+        <v>229.1000061035156</v>
+      </c>
+      <c r="D1482" t="n">
+        <v>223.6000061035156</v>
+      </c>
+      <c r="E1482" t="n">
+        <v>227.9499969482422</v>
+      </c>
+      <c r="F1482" t="n">
+        <v>227.9499969482422</v>
+      </c>
+      <c r="G1482" t="n">
+        <v>3927349</v>
+      </c>
+      <c r="H1482" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1482" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1482" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1482" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1482" t="inlineStr"/>
+    </row>
+    <row r="1483">
+      <c r="A1483" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1483" t="n">
+        <v>228.5500030517578</v>
+      </c>
+      <c r="C1483" t="n">
+        <v>228.8000030517578</v>
+      </c>
+      <c r="D1483" t="n">
+        <v>224.8099975585938</v>
+      </c>
+      <c r="E1483" t="n">
+        <v>225.1600036621094</v>
+      </c>
+      <c r="F1483" t="n">
+        <v>225.1600036621094</v>
+      </c>
+      <c r="G1483" t="n">
+        <v>2398929</v>
+      </c>
+      <c r="H1483" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1483" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1483" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1483" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1483" t="inlineStr"/>
+    </row>
+    <row r="1484">
+      <c r="A1484" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1484" t="n">
+        <v>219.9700012207031</v>
+      </c>
+      <c r="C1484" t="n">
+        <v>222.7200012207031</v>
+      </c>
+      <c r="D1484" t="n">
+        <v>218</v>
+      </c>
+      <c r="E1484" t="n">
+        <v>218.6499938964844</v>
+      </c>
+      <c r="F1484" t="n">
+        <v>218.6499938964844</v>
+      </c>
+      <c r="G1484" t="n">
+        <v>3998031</v>
+      </c>
+      <c r="H1484" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1484" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1484" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1484" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1484" t="inlineStr"/>
+    </row>
+    <row r="1485">
+      <c r="A1485" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1485" t="n">
+        <v>219.6499938964844</v>
+      </c>
+      <c r="C1485" t="n">
+        <v>220.8000030517578</v>
+      </c>
+      <c r="D1485" t="n">
+        <v>212.6600036621094</v>
+      </c>
+      <c r="E1485" t="n">
+        <v>217.3600006103516</v>
+      </c>
+      <c r="F1485" t="n">
+        <v>217.3600006103516</v>
+      </c>
+      <c r="G1485" t="n">
+        <v>4383223</v>
+      </c>
+      <c r="H1485" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1485" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1485" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1485" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1485" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1485"/>
+  <dimension ref="A1:R1490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83461,7 +83461,9 @@
       <c r="Q1482" t="n">
         <v>0</v>
       </c>
-      <c r="R1482" t="inlineStr"/>
+      <c r="R1482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1483">
       <c r="A1483" s="2" t="n">
@@ -83515,7 +83517,9 @@
       <c r="Q1483" t="n">
         <v>0</v>
       </c>
-      <c r="R1483" t="inlineStr"/>
+      <c r="R1483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1484">
       <c r="A1484" s="2" t="n">
@@ -83569,7 +83573,9 @@
       <c r="Q1484" t="n">
         <v>0</v>
       </c>
-      <c r="R1484" t="inlineStr"/>
+      <c r="R1484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1485">
       <c r="A1485" s="2" t="n">
@@ -83623,7 +83629,279 @@
       <c r="Q1485" t="n">
         <v>0</v>
       </c>
-      <c r="R1485" t="inlineStr"/>
+      <c r="R1485" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1486" t="n">
+        <v>217.3600006103516</v>
+      </c>
+      <c r="C1486" t="n">
+        <v>219.9900054931641</v>
+      </c>
+      <c r="D1486" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="E1486" t="n">
+        <v>206.5800018310547</v>
+      </c>
+      <c r="F1486" t="n">
+        <v>206.5800018310547</v>
+      </c>
+      <c r="G1486" t="n">
+        <v>7181480</v>
+      </c>
+      <c r="H1486" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1486" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1486" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1486" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1486" t="inlineStr"/>
+    </row>
+    <row r="1487">
+      <c r="A1487" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>204.5</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>220.6699981689453</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>202.8899993896484</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>218.4400024414062</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>218.4400024414062</v>
+      </c>
+      <c r="G1487" t="n">
+        <v>7765969</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1487" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1487" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1487" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1487" t="inlineStr"/>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>221</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>226.2700042724609</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>220.6000061035156</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>222.6900024414062</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>222.6900024414062</v>
+      </c>
+      <c r="G1488" t="n">
+        <v>4540076</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1488" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1488" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1488" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1488" t="inlineStr"/>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>223.1999969482422</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>223.9700012207031</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>220.5599975585938</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>220.5599975585938</v>
+      </c>
+      <c r="G1489" t="n">
+        <v>2327469</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1489" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1489" t="inlineStr"/>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>229.3999938964844</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>218.6000061035156</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>226.2200012207031</v>
+      </c>
+      <c r="F1490" t="n">
+        <v>226.2200012207031</v>
+      </c>
+      <c r="G1490" t="n">
+        <v>6634078</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1490" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1490" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1490"/>
+  <dimension ref="A1:R1495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83685,7 +83685,9 @@
       <c r="Q1486" t="n">
         <v>0</v>
       </c>
-      <c r="R1486" t="inlineStr"/>
+      <c r="R1486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1487">
       <c r="A1487" s="2" t="n">
@@ -83739,7 +83741,9 @@
       <c r="Q1487" t="n">
         <v>0</v>
       </c>
-      <c r="R1487" t="inlineStr"/>
+      <c r="R1487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1488">
       <c r="A1488" s="2" t="n">
@@ -83793,7 +83797,9 @@
       <c r="Q1488" t="n">
         <v>0</v>
       </c>
-      <c r="R1488" t="inlineStr"/>
+      <c r="R1488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1489">
       <c r="A1489" s="2" t="n">
@@ -83847,7 +83853,9 @@
       <c r="Q1489" t="n">
         <v>0</v>
       </c>
-      <c r="R1489" t="inlineStr"/>
+      <c r="R1489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1490">
       <c r="A1490" s="2" t="n">
@@ -83901,7 +83909,279 @@
       <c r="Q1490" t="n">
         <v>0</v>
       </c>
-      <c r="R1490" t="inlineStr"/>
+      <c r="R1490" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>226.8000030517578</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>228.1999969482422</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>221.6100006103516</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>222.3399963378906</v>
+      </c>
+      <c r="F1491" t="n">
+        <v>222.3399963378906</v>
+      </c>
+      <c r="G1491" t="n">
+        <v>3294957</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1491" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1491" t="inlineStr"/>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>223.5</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>224.6999969482422</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>221</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>222.0700073242188</v>
+      </c>
+      <c r="F1492" t="n">
+        <v>222.0700073242188</v>
+      </c>
+      <c r="G1492" t="n">
+        <v>2475580</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1492" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1492" t="inlineStr"/>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>222</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>226.5</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>221.2400054931641</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>223.5099945068359</v>
+      </c>
+      <c r="F1493" t="n">
+        <v>223.5099945068359</v>
+      </c>
+      <c r="G1493" t="n">
+        <v>3563444</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1493" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1493" t="inlineStr"/>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>225.4299926757812</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>222.3500061035156</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>223.75</v>
+      </c>
+      <c r="F1494" t="n">
+        <v>223.75</v>
+      </c>
+      <c r="G1494" t="n">
+        <v>9146991</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1494" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1494" t="inlineStr"/>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>223.7299957275391</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>223.7299957275391</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>216.1999969482422</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>221.7400054931641</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>221.7400054931641</v>
+      </c>
+      <c r="G1495" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1495" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1495" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1495"/>
+  <dimension ref="A1:R1500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83965,7 +83965,9 @@
       <c r="Q1491" t="n">
         <v>0</v>
       </c>
-      <c r="R1491" t="inlineStr"/>
+      <c r="R1491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1492">
       <c r="A1492" s="2" t="n">
@@ -84019,7 +84021,9 @@
       <c r="Q1492" t="n">
         <v>0</v>
       </c>
-      <c r="R1492" t="inlineStr"/>
+      <c r="R1492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1493">
       <c r="A1493" s="2" t="n">
@@ -84073,7 +84077,9 @@
       <c r="Q1493" t="n">
         <v>0</v>
       </c>
-      <c r="R1493" t="inlineStr"/>
+      <c r="R1493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1494">
       <c r="A1494" s="2" t="n">
@@ -84127,7 +84133,9 @@
       <c r="Q1494" t="n">
         <v>0</v>
       </c>
-      <c r="R1494" t="inlineStr"/>
+      <c r="R1494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1495">
       <c r="A1495" s="2" t="n">
@@ -84181,7 +84189,279 @@
       <c r="Q1495" t="n">
         <v>0</v>
       </c>
-      <c r="R1495" t="inlineStr"/>
+      <c r="R1495" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>223.1000061035156</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>223.8899993896484</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>211.6000061035156</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>213.8899993896484</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>213.8899993896484</v>
+      </c>
+      <c r="G1496" t="n">
+        <v>2698786</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1496" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1496" t="inlineStr"/>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>212.8999938964844</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>212.9600067138672</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>199.1999969482422</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>200.1799926757812</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>200.1799926757812</v>
+      </c>
+      <c r="G1497" t="n">
+        <v>7994556</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1497" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1497" t="inlineStr"/>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>200.8999938964844</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>206.3500061035156</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>192.0500030517578</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>201.4900054931641</v>
+      </c>
+      <c r="F1498" t="n">
+        <v>201.4900054931641</v>
+      </c>
+      <c r="G1498" t="n">
+        <v>6737198</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1498" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1498" t="inlineStr"/>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>202.5</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>204.6999969482422</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>199.0800018310547</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>202.3300018310547</v>
+      </c>
+      <c r="F1499" t="n">
+        <v>202.3300018310547</v>
+      </c>
+      <c r="G1499" t="n">
+        <v>4030854</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1499" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1499" t="inlineStr"/>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>203</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>191.8300018310547</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>193.1399993896484</v>
+      </c>
+      <c r="F1500" t="n">
+        <v>193.1399993896484</v>
+      </c>
+      <c r="G1500" t="n">
+        <v>5776782</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1500" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1500" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1500"/>
+  <dimension ref="A1:R1504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84125,7 +84125,7 @@
         <v>42</v>
       </c>
       <c r="O1494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1494" t="n">
         <v>0</v>
@@ -84245,7 +84245,9 @@
       <c r="Q1496" t="n">
         <v>0</v>
       </c>
-      <c r="R1496" t="inlineStr"/>
+      <c r="R1496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1497">
       <c r="A1497" s="2" t="n">
@@ -84299,7 +84301,9 @@
       <c r="Q1497" t="n">
         <v>0</v>
       </c>
-      <c r="R1497" t="inlineStr"/>
+      <c r="R1497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1498">
       <c r="A1498" s="2" t="n">
@@ -84353,7 +84357,9 @@
       <c r="Q1498" t="n">
         <v>0</v>
       </c>
-      <c r="R1498" t="inlineStr"/>
+      <c r="R1498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1499">
       <c r="A1499" s="2" t="n">
@@ -84407,7 +84413,9 @@
       <c r="Q1499" t="n">
         <v>0</v>
       </c>
-      <c r="R1499" t="inlineStr"/>
+      <c r="R1499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1500">
       <c r="A1500" s="2" t="n">
@@ -84461,7 +84469,225 @@
       <c r="Q1500" t="n">
         <v>0</v>
       </c>
-      <c r="R1500" t="inlineStr"/>
+      <c r="R1500" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>194.1600036621094</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>203.7100067138672</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>192.8000030517578</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>201.0099945068359</v>
+      </c>
+      <c r="F1501" t="n">
+        <v>201.0099945068359</v>
+      </c>
+      <c r="G1501" t="n">
+        <v>5883020</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1501" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1501" t="inlineStr"/>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>202</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>205.1999969482422</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>198.6100006103516</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>203.2700042724609</v>
+      </c>
+      <c r="F1502" t="n">
+        <v>203.2700042724609</v>
+      </c>
+      <c r="G1502" t="n">
+        <v>3737973</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1502" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1502" t="inlineStr"/>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>203.9499969482422</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>217.3500061035156</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>202.3099975585938</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>213.1600036621094</v>
+      </c>
+      <c r="F1503" t="n">
+        <v>213.1600036621094</v>
+      </c>
+      <c r="G1503" t="n">
+        <v>10513886</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1503" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1503" t="inlineStr"/>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>213.1600036621094</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>219.8500061035156</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>210.6999969482422</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>217.6399993896484</v>
+      </c>
+      <c r="F1504" t="n">
+        <v>217.6399993896484</v>
+      </c>
+      <c r="G1504" t="n">
+        <v>6622166</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1504" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1504" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1504"/>
+  <dimension ref="A1:R1510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84461,7 +84461,7 @@
         <v>43</v>
       </c>
       <c r="O1500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1500" t="n">
         <v>0</v>
@@ -84525,7 +84525,9 @@
       <c r="Q1501" t="n">
         <v>0</v>
       </c>
-      <c r="R1501" t="inlineStr"/>
+      <c r="R1501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1502">
       <c r="A1502" s="2" t="n">
@@ -84579,7 +84581,9 @@
       <c r="Q1502" t="n">
         <v>0</v>
       </c>
-      <c r="R1502" t="inlineStr"/>
+      <c r="R1502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1503">
       <c r="A1503" s="2" t="n">
@@ -84633,7 +84637,9 @@
       <c r="Q1503" t="n">
         <v>0</v>
       </c>
-      <c r="R1503" t="inlineStr"/>
+      <c r="R1503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1504">
       <c r="A1504" s="2" t="n">
@@ -84687,7 +84693,333 @@
       <c r="Q1504" t="n">
         <v>0</v>
       </c>
-      <c r="R1504" t="inlineStr"/>
+      <c r="R1504" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>219</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>221</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>219</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>220.1799926757812</v>
+      </c>
+      <c r="F1505" t="n">
+        <v>220.1799926757812</v>
+      </c>
+      <c r="G1505" t="n">
+        <v>1118767</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1505" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1505" t="inlineStr"/>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>220.8000030517578</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>220.8699951171875</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>209.2100067138672</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>209.9299926757812</v>
+      </c>
+      <c r="F1506" t="n">
+        <v>209.9299926757812</v>
+      </c>
+      <c r="G1506" t="n">
+        <v>4506677</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1506" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1506" t="inlineStr"/>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>209.8300018310547</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>212.7400054931641</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>206.0500030517578</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>212.1499938964844</v>
+      </c>
+      <c r="F1507" t="n">
+        <v>212.1499938964844</v>
+      </c>
+      <c r="G1507" t="n">
+        <v>4275376</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1507" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1507" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1507" t="inlineStr"/>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>215</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>219.8600006103516</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>213.6000061035156</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>218.8899993896484</v>
+      </c>
+      <c r="F1508" t="n">
+        <v>218.8899993896484</v>
+      </c>
+      <c r="G1508" t="n">
+        <v>4435966</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1508" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1508" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1508" t="inlineStr"/>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>219.9499969482422</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>221.4900054931641</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>214.2100067138672</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>215.2899932861328</v>
+      </c>
+      <c r="F1509" t="n">
+        <v>215.2899932861328</v>
+      </c>
+      <c r="G1509" t="n">
+        <v>4335677</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1509" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1509" t="inlineStr"/>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>205</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>208.5</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>202.4499969482422</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>205.9299926757812</v>
+      </c>
+      <c r="F1510" t="n">
+        <v>205.9299926757812</v>
+      </c>
+      <c r="G1510" t="n">
+        <v>10555887</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1510" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1510" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1510" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1510"/>
+  <dimension ref="A1:R1514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84749,7 +84749,9 @@
       <c r="Q1505" t="n">
         <v>0</v>
       </c>
-      <c r="R1505" t="inlineStr"/>
+      <c r="R1505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1506">
       <c r="A1506" s="2" t="n">
@@ -84803,7 +84805,9 @@
       <c r="Q1506" t="n">
         <v>0</v>
       </c>
-      <c r="R1506" t="inlineStr"/>
+      <c r="R1506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1507">
       <c r="A1507" s="2" t="n">
@@ -84857,7 +84861,9 @@
       <c r="Q1507" t="n">
         <v>0</v>
       </c>
-      <c r="R1507" t="inlineStr"/>
+      <c r="R1507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1508">
       <c r="A1508" s="2" t="n">
@@ -84911,7 +84917,9 @@
       <c r="Q1508" t="n">
         <v>0</v>
       </c>
-      <c r="R1508" t="inlineStr"/>
+      <c r="R1508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1509">
       <c r="A1509" s="2" t="n">
@@ -84965,7 +84973,9 @@
       <c r="Q1509" t="n">
         <v>0</v>
       </c>
-      <c r="R1509" t="inlineStr"/>
+      <c r="R1509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1510">
       <c r="A1510" s="2" t="n">
@@ -85019,7 +85029,225 @@
       <c r="Q1510" t="n">
         <v>0</v>
       </c>
-      <c r="R1510" t="inlineStr"/>
+      <c r="R1510" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>203.0500030517578</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>204.4400024414062</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>199.3200073242188</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>200.4900054931641</v>
+      </c>
+      <c r="F1511" t="n">
+        <v>200.4900054931641</v>
+      </c>
+      <c r="G1511" t="n">
+        <v>4493321</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1511" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1511" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1511" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1511" t="inlineStr"/>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>202.75</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>204.3500061035156</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>197</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>197.8999938964844</v>
+      </c>
+      <c r="F1512" t="n">
+        <v>197.8999938964844</v>
+      </c>
+      <c r="G1512" t="n">
+        <v>2572256</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1512" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1512" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1512" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1512" t="inlineStr"/>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>198</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>199</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>191.1799926757812</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>191.8600006103516</v>
+      </c>
+      <c r="F1513" t="n">
+        <v>191.8600006103516</v>
+      </c>
+      <c r="G1513" t="n">
+        <v>3409762</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1513" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1513" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1513" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1513" t="inlineStr"/>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>191.8600006103516</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>196</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>191.1000061035156</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>191.7799987792969</v>
+      </c>
+      <c r="F1514" t="n">
+        <v>191.7799987792969</v>
+      </c>
+      <c r="G1514" t="n">
+        <v>2923372</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1514" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1514" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1514" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1514" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1514"/>
+  <dimension ref="A1:R1518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85085,7 +85085,9 @@
       <c r="Q1511" t="n">
         <v>0</v>
       </c>
-      <c r="R1511" t="inlineStr"/>
+      <c r="R1511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1512">
       <c r="A1512" s="2" t="n">
@@ -85139,7 +85141,9 @@
       <c r="Q1512" t="n">
         <v>0</v>
       </c>
-      <c r="R1512" t="inlineStr"/>
+      <c r="R1512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1513">
       <c r="A1513" s="2" t="n">
@@ -85193,7 +85197,9 @@
       <c r="Q1513" t="n">
         <v>0</v>
       </c>
-      <c r="R1513" t="inlineStr"/>
+      <c r="R1513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1514">
       <c r="A1514" s="2" t="n">
@@ -85247,7 +85253,225 @@
       <c r="Q1514" t="n">
         <v>0</v>
       </c>
-      <c r="R1514" t="inlineStr"/>
+      <c r="R1514" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>193.0700073242188</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>194.5</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>184.3300018310547</v>
+      </c>
+      <c r="F1515" t="n">
+        <v>184.3300018310547</v>
+      </c>
+      <c r="G1515" t="n">
+        <v>5421257</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1515" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1515" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1515" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1515" t="inlineStr"/>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>186</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>194.2700042724609</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>185.6399993896484</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>188.7700042724609</v>
+      </c>
+      <c r="F1516" t="n">
+        <v>188.7700042724609</v>
+      </c>
+      <c r="G1516" t="n">
+        <v>5769343</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1516" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1516" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1516" t="inlineStr"/>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>189</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>189.9900054931641</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>183.3099975585938</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>185.7599945068359</v>
+      </c>
+      <c r="F1517" t="n">
+        <v>185.7599945068359</v>
+      </c>
+      <c r="G1517" t="n">
+        <v>3708642</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1517" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1517" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1517" t="inlineStr"/>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>187.7400054931641</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>188</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>182.9400024414062</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>187.5599975585938</v>
+      </c>
+      <c r="F1518" t="n">
+        <v>187.5599975585938</v>
+      </c>
+      <c r="G1518" t="n">
+        <v>3449332</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1518" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1518" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1518" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1518"/>
+  <dimension ref="A1:R1523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84965,7 +84965,7 @@
         <v>45</v>
       </c>
       <c r="O1509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1509" t="n">
         <v>0</v>
@@ -85309,7 +85309,9 @@
       <c r="Q1515" t="n">
         <v>0</v>
       </c>
-      <c r="R1515" t="inlineStr"/>
+      <c r="R1515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1516">
       <c r="A1516" s="2" t="n">
@@ -85363,7 +85365,9 @@
       <c r="Q1516" t="n">
         <v>0</v>
       </c>
-      <c r="R1516" t="inlineStr"/>
+      <c r="R1516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1517">
       <c r="A1517" s="2" t="n">
@@ -85417,7 +85421,9 @@
       <c r="Q1517" t="n">
         <v>0</v>
       </c>
-      <c r="R1517" t="inlineStr"/>
+      <c r="R1517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1518">
       <c r="A1518" s="2" t="n">
@@ -85471,7 +85477,279 @@
       <c r="Q1518" t="n">
         <v>0</v>
       </c>
-      <c r="R1518" t="inlineStr"/>
+      <c r="R1518" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>197.3000030517578</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>201.6000061035156</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>195.25</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>196.4499969482422</v>
+      </c>
+      <c r="F1519" t="n">
+        <v>196.4499969482422</v>
+      </c>
+      <c r="G1519" t="n">
+        <v>8191091</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1519" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1519" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1519" t="inlineStr"/>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>197.9900054931641</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>198.6799926757812</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>195.1100006103516</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>197.5899963378906</v>
+      </c>
+      <c r="F1520" t="n">
+        <v>197.5899963378906</v>
+      </c>
+      <c r="G1520" t="n">
+        <v>3036152</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1520" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1520" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1520" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1520" t="inlineStr"/>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>198.1999969482422</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>212.4499969482422</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>196.6000061035156</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>211.1399993896484</v>
+      </c>
+      <c r="F1521" t="n">
+        <v>211.1399993896484</v>
+      </c>
+      <c r="G1521" t="n">
+        <v>14021067</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1521" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1521" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1521" t="inlineStr"/>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>211.3399963378906</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>214.8899993896484</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>210.1000061035156</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>212.3200073242188</v>
+      </c>
+      <c r="F1522" t="n">
+        <v>212.3200073242188</v>
+      </c>
+      <c r="G1522" t="n">
+        <v>6711630</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1522" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1522" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1522" t="inlineStr"/>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>212.8500061035156</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>212.8500061035156</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>207.6000061035156</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>209.75</v>
+      </c>
+      <c r="F1523" t="n">
+        <v>209.75</v>
+      </c>
+      <c r="G1523" t="n">
+        <v>3895921</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1523" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1523" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1523" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1523"/>
+  <dimension ref="A1:R1528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85469,7 +85469,7 @@
         <v>47</v>
       </c>
       <c r="O1518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1518" t="n">
         <v>0</v>
@@ -85533,7 +85533,9 @@
       <c r="Q1519" t="n">
         <v>0</v>
       </c>
-      <c r="R1519" t="inlineStr"/>
+      <c r="R1519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1520">
       <c r="A1520" s="2" t="n">
@@ -85587,7 +85589,9 @@
       <c r="Q1520" t="n">
         <v>0</v>
       </c>
-      <c r="R1520" t="inlineStr"/>
+      <c r="R1520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1521">
       <c r="A1521" s="2" t="n">
@@ -85641,7 +85645,9 @@
       <c r="Q1521" t="n">
         <v>0</v>
       </c>
-      <c r="R1521" t="inlineStr"/>
+      <c r="R1521" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1522">
       <c r="A1522" s="2" t="n">
@@ -85695,7 +85701,9 @@
       <c r="Q1522" t="n">
         <v>0</v>
       </c>
-      <c r="R1522" t="inlineStr"/>
+      <c r="R1522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1523">
       <c r="A1523" s="2" t="n">
@@ -85749,7 +85757,279 @@
       <c r="Q1523" t="n">
         <v>0</v>
       </c>
-      <c r="R1523" t="inlineStr"/>
+      <c r="R1523" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>209.75</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>221</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>206.7599945068359</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>217.2200012207031</v>
+      </c>
+      <c r="F1524" t="n">
+        <v>217.2200012207031</v>
+      </c>
+      <c r="G1524" t="n">
+        <v>5648924</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1524" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1524" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1524" t="inlineStr"/>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>218.6100006103516</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>217.25</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>219.0800018310547</v>
+      </c>
+      <c r="F1525" t="n">
+        <v>219.0800018310547</v>
+      </c>
+      <c r="G1525" t="n">
+        <v>4610595</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1525" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1525" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1525" t="inlineStr"/>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>219.4900054931641</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>224.2799987792969</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>219</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>220.5899963378906</v>
+      </c>
+      <c r="F1526" t="n">
+        <v>220.5899963378906</v>
+      </c>
+      <c r="G1526" t="n">
+        <v>4017978</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1526" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1526" t="inlineStr"/>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>221.4499969482422</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>221.4499969482422</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>217.2100067138672</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>219.1699981689453</v>
+      </c>
+      <c r="F1527" t="n">
+        <v>219.1699981689453</v>
+      </c>
+      <c r="G1527" t="n">
+        <v>3268351</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1527" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1527" t="inlineStr"/>
+    </row>
+    <row r="1528">
+      <c r="A1528" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1528" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="C1528" t="n">
+        <v>228.7100067138672</v>
+      </c>
+      <c r="D1528" t="n">
+        <v>218.1999969482422</v>
+      </c>
+      <c r="E1528" t="n">
+        <v>225.8800048828125</v>
+      </c>
+      <c r="F1528" t="n">
+        <v>225.8800048828125</v>
+      </c>
+      <c r="G1528" t="n">
+        <v>8271837</v>
+      </c>
+      <c r="H1528" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1528" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1528" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1528" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1528" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1528"/>
+  <dimension ref="A1:R1538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85813,7 +85813,9 @@
       <c r="Q1524" t="n">
         <v>0</v>
       </c>
-      <c r="R1524" t="inlineStr"/>
+      <c r="R1524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1525">
       <c r="A1525" s="2" t="n">
@@ -85867,7 +85869,9 @@
       <c r="Q1525" t="n">
         <v>0</v>
       </c>
-      <c r="R1525" t="inlineStr"/>
+      <c r="R1525" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1526">
       <c r="A1526" s="2" t="n">
@@ -85921,7 +85925,9 @@
       <c r="Q1526" t="n">
         <v>0</v>
       </c>
-      <c r="R1526" t="inlineStr"/>
+      <c r="R1526" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1527">
       <c r="A1527" s="2" t="n">
@@ -85975,7 +85981,9 @@
       <c r="Q1527" t="n">
         <v>0</v>
       </c>
-      <c r="R1527" t="inlineStr"/>
+      <c r="R1527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1528">
       <c r="A1528" s="2" t="n">
@@ -86029,7 +86037,529 @@
       <c r="Q1528" t="n">
         <v>0</v>
       </c>
-      <c r="R1528" t="inlineStr"/>
+      <c r="R1528" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1529" t="n">
+        <v>226.8500061035156</v>
+      </c>
+      <c r="C1529" t="n">
+        <v>229.6499938964844</v>
+      </c>
+      <c r="D1529" t="n">
+        <v>225.2899932861328</v>
+      </c>
+      <c r="E1529" t="n">
+        <v>227.3500061035156</v>
+      </c>
+      <c r="F1529" t="inlineStr"/>
+      <c r="G1529" t="n">
+        <v>4155264</v>
+      </c>
+      <c r="H1529" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1529" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1529" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1529" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1529" t="inlineStr"/>
+    </row>
+    <row r="1530">
+      <c r="A1530" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1530" t="n">
+        <v>228.25</v>
+      </c>
+      <c r="C1530" t="n">
+        <v>228.25</v>
+      </c>
+      <c r="D1530" t="n">
+        <v>221.5500030517578</v>
+      </c>
+      <c r="E1530" t="n">
+        <v>222.6399993896484</v>
+      </c>
+      <c r="F1530" t="inlineStr"/>
+      <c r="G1530" t="n">
+        <v>3476431</v>
+      </c>
+      <c r="H1530" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1530" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1530" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1530" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1530" t="inlineStr"/>
+    </row>
+    <row r="1531">
+      <c r="A1531" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1531" t="n">
+        <v>222.6399993896484</v>
+      </c>
+      <c r="C1531" t="n">
+        <v>237.6999969482422</v>
+      </c>
+      <c r="D1531" t="n">
+        <v>222.4299926757812</v>
+      </c>
+      <c r="E1531" t="n">
+        <v>236.1499938964844</v>
+      </c>
+      <c r="F1531" t="inlineStr"/>
+      <c r="G1531" t="n">
+        <v>21768728</v>
+      </c>
+      <c r="H1531" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1531" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1531" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1531" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1531" t="inlineStr"/>
+    </row>
+    <row r="1532">
+      <c r="A1532" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1532" t="n">
+        <v>235.9499969482422</v>
+      </c>
+      <c r="C1532" t="n">
+        <v>235.9499969482422</v>
+      </c>
+      <c r="D1532" t="n">
+        <v>231.0500030517578</v>
+      </c>
+      <c r="E1532" t="n">
+        <v>232.6300048828125</v>
+      </c>
+      <c r="F1532" t="inlineStr"/>
+      <c r="G1532" t="n">
+        <v>5387160</v>
+      </c>
+      <c r="H1532" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1532" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1532" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1532" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1532" t="inlineStr"/>
+    </row>
+    <row r="1533">
+      <c r="A1533" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1533" t="n">
+        <v>230.8600006103516</v>
+      </c>
+      <c r="C1533" t="n">
+        <v>231.1999969482422</v>
+      </c>
+      <c r="D1533" t="n">
+        <v>223.2299957275391</v>
+      </c>
+      <c r="E1533" t="n">
+        <v>226.0599975585938</v>
+      </c>
+      <c r="F1533" t="inlineStr"/>
+      <c r="G1533" t="n">
+        <v>5757348</v>
+      </c>
+      <c r="H1533" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1533" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1533" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1533" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1533" t="inlineStr"/>
+    </row>
+    <row r="1534">
+      <c r="A1534" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1534" t="n">
+        <v>227.1999969482422</v>
+      </c>
+      <c r="C1534" t="n">
+        <v>232.3999938964844</v>
+      </c>
+      <c r="D1534" t="n">
+        <v>226.7599945068359</v>
+      </c>
+      <c r="E1534" t="n">
+        <v>230.25</v>
+      </c>
+      <c r="F1534" t="inlineStr"/>
+      <c r="G1534" t="n">
+        <v>5314211</v>
+      </c>
+      <c r="H1534" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1534" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1534" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1534" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1534" t="inlineStr"/>
+    </row>
+    <row r="1535">
+      <c r="A1535" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1535" t="n">
+        <v>230</v>
+      </c>
+      <c r="C1535" t="n">
+        <v>233.6999969482422</v>
+      </c>
+      <c r="D1535" t="n">
+        <v>227.1100006103516</v>
+      </c>
+      <c r="E1535" t="n">
+        <v>228.7100067138672</v>
+      </c>
+      <c r="F1535" t="inlineStr"/>
+      <c r="G1535" t="n">
+        <v>4321955</v>
+      </c>
+      <c r="H1535" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1535" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1535" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1535" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1535" t="inlineStr"/>
+    </row>
+    <row r="1536">
+      <c r="A1536" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1536" t="n">
+        <v>228.7100067138672</v>
+      </c>
+      <c r="C1536" t="n">
+        <v>229.1900024414062</v>
+      </c>
+      <c r="D1536" t="n">
+        <v>222.1499938964844</v>
+      </c>
+      <c r="E1536" t="n">
+        <v>223.8099975585938</v>
+      </c>
+      <c r="F1536" t="inlineStr"/>
+      <c r="G1536" t="n">
+        <v>3414613</v>
+      </c>
+      <c r="H1536" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1536" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1536" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1536" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1536" t="inlineStr"/>
+    </row>
+    <row r="1537">
+      <c r="A1537" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1537" t="n">
+        <v>215.9100036621094</v>
+      </c>
+      <c r="C1537" t="n">
+        <v>221.1499938964844</v>
+      </c>
+      <c r="D1537" t="n">
+        <v>215.9100036621094</v>
+      </c>
+      <c r="E1537" t="n">
+        <v>217.6399993896484</v>
+      </c>
+      <c r="F1537" t="inlineStr"/>
+      <c r="G1537" t="n">
+        <v>3688041</v>
+      </c>
+      <c r="H1537" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1537" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1537" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1537" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1537" t="inlineStr"/>
+    </row>
+    <row r="1538">
+      <c r="A1538" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1538" t="n">
+        <v>218</v>
+      </c>
+      <c r="C1538" t="n">
+        <v>220.6300048828125</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>213.1600036621094</v>
+      </c>
+      <c r="E1538" t="n">
+        <v>218.2700042724609</v>
+      </c>
+      <c r="F1538" t="inlineStr"/>
+      <c r="G1538" t="n">
+        <v>4752822</v>
+      </c>
+      <c r="H1538" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1538" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1538" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1538" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1538" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1538"/>
+  <dimension ref="A1:R1542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86091,7 +86091,9 @@
       <c r="Q1529" t="n">
         <v>0</v>
       </c>
-      <c r="R1529" t="inlineStr"/>
+      <c r="R1529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1530">
       <c r="A1530" s="2" t="n">
@@ -86143,7 +86145,9 @@
       <c r="Q1530" t="n">
         <v>0</v>
       </c>
-      <c r="R1530" t="inlineStr"/>
+      <c r="R1530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1531">
       <c r="A1531" s="2" t="n">
@@ -86187,7 +86191,7 @@
         <v>50</v>
       </c>
       <c r="O1531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1531" t="n">
         <v>0</v>
@@ -86195,7 +86199,9 @@
       <c r="Q1531" t="n">
         <v>0</v>
       </c>
-      <c r="R1531" t="inlineStr"/>
+      <c r="R1531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1532">
       <c r="A1532" s="2" t="n">
@@ -86247,7 +86253,9 @@
       <c r="Q1532" t="n">
         <v>0</v>
       </c>
-      <c r="R1532" t="inlineStr"/>
+      <c r="R1532" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1533">
       <c r="A1533" s="2" t="n">
@@ -86299,7 +86307,9 @@
       <c r="Q1533" t="n">
         <v>0</v>
       </c>
-      <c r="R1533" t="inlineStr"/>
+      <c r="R1533" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1534">
       <c r="A1534" s="2" t="n">
@@ -86351,7 +86361,9 @@
       <c r="Q1534" t="n">
         <v>0</v>
       </c>
-      <c r="R1534" t="inlineStr"/>
+      <c r="R1534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1535">
       <c r="A1535" s="2" t="n">
@@ -86403,7 +86415,9 @@
       <c r="Q1535" t="n">
         <v>0</v>
       </c>
-      <c r="R1535" t="inlineStr"/>
+      <c r="R1535" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1536">
       <c r="A1536" s="2" t="n">
@@ -86455,7 +86469,9 @@
       <c r="Q1536" t="n">
         <v>0</v>
       </c>
-      <c r="R1536" t="inlineStr"/>
+      <c r="R1536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1537">
       <c r="A1537" s="2" t="n">
@@ -86507,7 +86523,9 @@
       <c r="Q1537" t="n">
         <v>0</v>
       </c>
-      <c r="R1537" t="inlineStr"/>
+      <c r="R1537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1538">
       <c r="A1538" s="2" t="n">
@@ -86559,7 +86577,217 @@
       <c r="Q1538" t="n">
         <v>0</v>
       </c>
-      <c r="R1538" t="inlineStr"/>
+      <c r="R1538" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1539" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="C1539" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>210.25</v>
+      </c>
+      <c r="E1539" t="n">
+        <v>212.25</v>
+      </c>
+      <c r="F1539" t="inlineStr"/>
+      <c r="G1539" t="n">
+        <v>3427625</v>
+      </c>
+      <c r="H1539" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1539" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1539" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1539" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1539" t="inlineStr"/>
+    </row>
+    <row r="1540">
+      <c r="A1540" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1540" t="n">
+        <v>212.5</v>
+      </c>
+      <c r="C1540" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="D1540" t="n">
+        <v>209</v>
+      </c>
+      <c r="E1540" t="n">
+        <v>210.0599975585938</v>
+      </c>
+      <c r="F1540" t="inlineStr"/>
+      <c r="G1540" t="n">
+        <v>2806918</v>
+      </c>
+      <c r="H1540" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1540" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1540" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1540" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1540" t="inlineStr"/>
+    </row>
+    <row r="1541">
+      <c r="A1541" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1541" t="n">
+        <v>210.3999938964844</v>
+      </c>
+      <c r="C1541" t="n">
+        <v>212.8000030517578</v>
+      </c>
+      <c r="D1541" t="n">
+        <v>206.8999938964844</v>
+      </c>
+      <c r="E1541" t="n">
+        <v>207.3800048828125</v>
+      </c>
+      <c r="F1541" t="inlineStr"/>
+      <c r="G1541" t="n">
+        <v>2504845</v>
+      </c>
+      <c r="H1541" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1541" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1541" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1541" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1541" t="inlineStr"/>
+    </row>
+    <row r="1542">
+      <c r="A1542" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1542" t="n">
+        <v>210</v>
+      </c>
+      <c r="C1542" t="n">
+        <v>213.3000030517578</v>
+      </c>
+      <c r="D1542" t="n">
+        <v>207.0099945068359</v>
+      </c>
+      <c r="E1542" t="n">
+        <v>209.3699951171875</v>
+      </c>
+      <c r="F1542" t="inlineStr"/>
+      <c r="G1542" t="n">
+        <v>3138741</v>
+      </c>
+      <c r="H1542" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1542" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1542" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1542" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1542" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1542"/>
+  <dimension ref="A1:R1547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86631,7 +86631,9 @@
       <c r="Q1539" t="n">
         <v>0</v>
       </c>
-      <c r="R1539" t="inlineStr"/>
+      <c r="R1539" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1540">
       <c r="A1540" s="2" t="n">
@@ -86683,7 +86685,9 @@
       <c r="Q1540" t="n">
         <v>0</v>
       </c>
-      <c r="R1540" t="inlineStr"/>
+      <c r="R1540" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1541">
       <c r="A1541" s="2" t="n">
@@ -86735,7 +86739,9 @@
       <c r="Q1541" t="n">
         <v>0</v>
       </c>
-      <c r="R1541" t="inlineStr"/>
+      <c r="R1541" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1542">
       <c r="A1542" s="2" t="n">
@@ -86787,7 +86793,269 @@
       <c r="Q1542" t="n">
         <v>0</v>
       </c>
-      <c r="R1542" t="inlineStr"/>
+      <c r="R1542" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1543" t="n">
+        <v>209.3000030517578</v>
+      </c>
+      <c r="C1543" t="n">
+        <v>213.3899993896484</v>
+      </c>
+      <c r="D1543" t="n">
+        <v>206.8600006103516</v>
+      </c>
+      <c r="E1543" t="n">
+        <v>208.9799957275391</v>
+      </c>
+      <c r="F1543" t="inlineStr"/>
+      <c r="G1543" t="n">
+        <v>3369440</v>
+      </c>
+      <c r="H1543" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1543" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1543" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1543" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1543" t="inlineStr"/>
+    </row>
+    <row r="1544">
+      <c r="A1544" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1544" t="n">
+        <v>209</v>
+      </c>
+      <c r="C1544" t="n">
+        <v>219</v>
+      </c>
+      <c r="D1544" t="n">
+        <v>207.6100006103516</v>
+      </c>
+      <c r="E1544" t="n">
+        <v>215.0099945068359</v>
+      </c>
+      <c r="F1544" t="inlineStr"/>
+      <c r="G1544" t="n">
+        <v>8025119</v>
+      </c>
+      <c r="H1544" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1544" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1544" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1544" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1544" t="inlineStr"/>
+    </row>
+    <row r="1545">
+      <c r="A1545" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1545" t="n">
+        <v>213.8899993896484</v>
+      </c>
+      <c r="C1545" t="n">
+        <v>220.4499969482422</v>
+      </c>
+      <c r="D1545" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="E1545" t="n">
+        <v>217.8500061035156</v>
+      </c>
+      <c r="F1545" t="inlineStr"/>
+      <c r="G1545" t="n">
+        <v>3544815</v>
+      </c>
+      <c r="H1545" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1545" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1545" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1545" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1545" t="inlineStr"/>
+    </row>
+    <row r="1546">
+      <c r="A1546" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1546" t="n">
+        <v>219</v>
+      </c>
+      <c r="C1546" t="n">
+        <v>220</v>
+      </c>
+      <c r="D1546" t="n">
+        <v>215.8800048828125</v>
+      </c>
+      <c r="E1546" t="n">
+        <v>217.9100036621094</v>
+      </c>
+      <c r="F1546" t="inlineStr"/>
+      <c r="G1546" t="n">
+        <v>3102552</v>
+      </c>
+      <c r="H1546" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1546" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1546" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1546" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1546" t="inlineStr"/>
+    </row>
+    <row r="1547">
+      <c r="A1547" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1547" t="n">
+        <v>219.8300018310547</v>
+      </c>
+      <c r="C1547" t="n">
+        <v>223.8000030517578</v>
+      </c>
+      <c r="D1547" t="n">
+        <v>215.8999938964844</v>
+      </c>
+      <c r="E1547" t="n">
+        <v>216.6000061035156</v>
+      </c>
+      <c r="F1547" t="inlineStr"/>
+      <c r="G1547" t="n">
+        <v>5001600</v>
+      </c>
+      <c r="H1547" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1547" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1547" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1547" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1547" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1547"/>
+  <dimension ref="A1:R1552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86847,7 +86847,9 @@
       <c r="Q1543" t="n">
         <v>0</v>
       </c>
-      <c r="R1543" t="inlineStr"/>
+      <c r="R1543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1544">
       <c r="A1544" s="2" t="n">
@@ -86899,7 +86901,9 @@
       <c r="Q1544" t="n">
         <v>0</v>
       </c>
-      <c r="R1544" t="inlineStr"/>
+      <c r="R1544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1545">
       <c r="A1545" s="2" t="n">
@@ -86951,7 +86955,9 @@
       <c r="Q1545" t="n">
         <v>0</v>
       </c>
-      <c r="R1545" t="inlineStr"/>
+      <c r="R1545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1546">
       <c r="A1546" s="2" t="n">
@@ -87003,7 +87009,9 @@
       <c r="Q1546" t="n">
         <v>0</v>
       </c>
-      <c r="R1546" t="inlineStr"/>
+      <c r="R1546" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1547">
       <c r="A1547" s="2" t="n">
@@ -87055,7 +87063,269 @@
       <c r="Q1547" t="n">
         <v>0</v>
       </c>
-      <c r="R1547" t="inlineStr"/>
+      <c r="R1547" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1548" t="n">
+        <v>216.6000061035156</v>
+      </c>
+      <c r="C1548" t="n">
+        <v>216.9900054931641</v>
+      </c>
+      <c r="D1548" t="n">
+        <v>203.1000061035156</v>
+      </c>
+      <c r="E1548" t="n">
+        <v>204.1399993896484</v>
+      </c>
+      <c r="F1548" t="inlineStr"/>
+      <c r="G1548" t="n">
+        <v>4804409</v>
+      </c>
+      <c r="H1548" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1548" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1548" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1548" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1548" t="inlineStr"/>
+    </row>
+    <row r="1549">
+      <c r="A1549" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1549" t="n">
+        <v>204</v>
+      </c>
+      <c r="C1549" t="n">
+        <v>208.6999969482422</v>
+      </c>
+      <c r="D1549" t="n">
+        <v>203.3600006103516</v>
+      </c>
+      <c r="E1549" t="n">
+        <v>207.7299957275391</v>
+      </c>
+      <c r="F1549" t="inlineStr"/>
+      <c r="G1549" t="n">
+        <v>2602160</v>
+      </c>
+      <c r="H1549" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1549" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1549" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1549" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1549" t="inlineStr"/>
+    </row>
+    <row r="1550">
+      <c r="A1550" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1550" t="n">
+        <v>208.5</v>
+      </c>
+      <c r="C1550" t="n">
+        <v>209.6000061035156</v>
+      </c>
+      <c r="D1550" t="n">
+        <v>204.2200012207031</v>
+      </c>
+      <c r="E1550" t="n">
+        <v>206.3300018310547</v>
+      </c>
+      <c r="F1550" t="inlineStr"/>
+      <c r="G1550" t="n">
+        <v>2789432</v>
+      </c>
+      <c r="H1550" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1550" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1550" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1550" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1550" t="inlineStr"/>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1551" t="n">
+        <v>206.3300018310547</v>
+      </c>
+      <c r="C1551" t="n">
+        <v>209.8999938964844</v>
+      </c>
+      <c r="D1551" t="n">
+        <v>199.1000061035156</v>
+      </c>
+      <c r="E1551" t="n">
+        <v>204.3699951171875</v>
+      </c>
+      <c r="F1551" t="inlineStr"/>
+      <c r="G1551" t="n">
+        <v>2709569</v>
+      </c>
+      <c r="H1551" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1551" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1551" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1551" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1551" t="inlineStr"/>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1552" t="n">
+        <v>202.0299987792969</v>
+      </c>
+      <c r="C1552" t="n">
+        <v>203</v>
+      </c>
+      <c r="D1552" t="n">
+        <v>191.1000061035156</v>
+      </c>
+      <c r="E1552" t="n">
+        <v>192.2400054931641</v>
+      </c>
+      <c r="F1552" t="inlineStr"/>
+      <c r="G1552" t="n">
+        <v>5544926</v>
+      </c>
+      <c r="H1552" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1552" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1552" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1552" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1552" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1552"/>
+  <dimension ref="A1:R1557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87117,7 +87117,9 @@
       <c r="Q1548" t="n">
         <v>0</v>
       </c>
-      <c r="R1548" t="inlineStr"/>
+      <c r="R1548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1549">
       <c r="A1549" s="2" t="n">
@@ -87169,7 +87171,9 @@
       <c r="Q1549" t="n">
         <v>0</v>
       </c>
-      <c r="R1549" t="inlineStr"/>
+      <c r="R1549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1550">
       <c r="A1550" s="2" t="n">
@@ -87221,7 +87225,9 @@
       <c r="Q1550" t="n">
         <v>0</v>
       </c>
-      <c r="R1550" t="inlineStr"/>
+      <c r="R1550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1551">
       <c r="A1551" s="2" t="n">
@@ -87273,7 +87279,9 @@
       <c r="Q1551" t="n">
         <v>0</v>
       </c>
-      <c r="R1551" t="inlineStr"/>
+      <c r="R1551" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1552">
       <c r="A1552" s="2" t="n">
@@ -87325,7 +87333,269 @@
       <c r="Q1552" t="n">
         <v>0</v>
       </c>
-      <c r="R1552" t="inlineStr"/>
+      <c r="R1552" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1553" t="n">
+        <v>190</v>
+      </c>
+      <c r="C1553" t="n">
+        <v>193.8200073242188</v>
+      </c>
+      <c r="D1553" t="n">
+        <v>181.0099945068359</v>
+      </c>
+      <c r="E1553" t="n">
+        <v>181.7400054931641</v>
+      </c>
+      <c r="F1553" t="inlineStr"/>
+      <c r="G1553" t="n">
+        <v>4521266</v>
+      </c>
+      <c r="H1553" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1553" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1553" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1553" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1553" t="inlineStr"/>
+    </row>
+    <row r="1554">
+      <c r="A1554" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1554" t="n">
+        <v>183.6499938964844</v>
+      </c>
+      <c r="C1554" t="n">
+        <v>190.1600036621094</v>
+      </c>
+      <c r="D1554" t="n">
+        <v>183.1100006103516</v>
+      </c>
+      <c r="E1554" t="n">
+        <v>188.0399932861328</v>
+      </c>
+      <c r="F1554" t="inlineStr"/>
+      <c r="G1554" t="n">
+        <v>4468280</v>
+      </c>
+      <c r="H1554" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1554" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1554" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1554" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1554" t="inlineStr"/>
+    </row>
+    <row r="1555">
+      <c r="A1555" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1555" t="n">
+        <v>191.0599975585938</v>
+      </c>
+      <c r="C1555" t="n">
+        <v>195.3999938964844</v>
+      </c>
+      <c r="D1555" t="n">
+        <v>188.5299987792969</v>
+      </c>
+      <c r="E1555" t="n">
+        <v>190.0099945068359</v>
+      </c>
+      <c r="F1555" t="inlineStr"/>
+      <c r="G1555" t="n">
+        <v>4687576</v>
+      </c>
+      <c r="H1555" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1555" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1555" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1555" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1555" t="inlineStr"/>
+    </row>
+    <row r="1556">
+      <c r="A1556" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1556" t="n">
+        <v>195.0200042724609</v>
+      </c>
+      <c r="C1556" t="n">
+        <v>225.3000030517578</v>
+      </c>
+      <c r="D1556" t="n">
+        <v>194.7200012207031</v>
+      </c>
+      <c r="E1556" t="n">
+        <v>220.4100036621094</v>
+      </c>
+      <c r="F1556" t="inlineStr"/>
+      <c r="G1556" t="n">
+        <v>56490315</v>
+      </c>
+      <c r="H1556" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1556" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1556" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1556" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1556" t="inlineStr"/>
+    </row>
+    <row r="1557">
+      <c r="A1557" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1557" t="n">
+        <v>215</v>
+      </c>
+      <c r="C1557" t="n">
+        <v>224.8500061035156</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>213.4600067138672</v>
+      </c>
+      <c r="E1557" t="n">
+        <v>220.1499938964844</v>
+      </c>
+      <c r="F1557" t="inlineStr"/>
+      <c r="G1557" t="n">
+        <v>25237235</v>
+      </c>
+      <c r="H1557" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1557" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1557" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1557" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1557" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1557"/>
+  <dimension ref="A1:R1562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87387,7 +87387,9 @@
       <c r="Q1553" t="n">
         <v>0</v>
       </c>
-      <c r="R1553" t="inlineStr"/>
+      <c r="R1553" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1554">
       <c r="A1554" s="2" t="n">
@@ -87439,7 +87441,9 @@
       <c r="Q1554" t="n">
         <v>0</v>
       </c>
-      <c r="R1554" t="inlineStr"/>
+      <c r="R1554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1555">
       <c r="A1555" s="2" t="n">
@@ -87491,7 +87495,9 @@
       <c r="Q1555" t="n">
         <v>0</v>
       </c>
-      <c r="R1555" t="inlineStr"/>
+      <c r="R1555" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1556">
       <c r="A1556" s="2" t="n">
@@ -87543,7 +87549,9 @@
       <c r="Q1556" t="n">
         <v>0</v>
       </c>
-      <c r="R1556" t="inlineStr"/>
+      <c r="R1556" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1557">
       <c r="A1557" s="2" t="n">
@@ -87595,7 +87603,269 @@
       <c r="Q1557" t="n">
         <v>0</v>
       </c>
-      <c r="R1557" t="inlineStr"/>
+      <c r="R1557" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1558" t="n">
+        <v>221.3500061035156</v>
+      </c>
+      <c r="C1558" t="n">
+        <v>229.3999938964844</v>
+      </c>
+      <c r="D1558" t="n">
+        <v>216.75</v>
+      </c>
+      <c r="E1558" t="n">
+        <v>218.9199981689453</v>
+      </c>
+      <c r="F1558" t="inlineStr"/>
+      <c r="G1558" t="n">
+        <v>13149405</v>
+      </c>
+      <c r="H1558" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1558" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1558" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1558" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1558" t="inlineStr"/>
+    </row>
+    <row r="1559">
+      <c r="A1559" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1559" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="C1559" t="n">
+        <v>220.4499969482422</v>
+      </c>
+      <c r="D1559" t="n">
+        <v>212</v>
+      </c>
+      <c r="E1559" t="n">
+        <v>213.7400054931641</v>
+      </c>
+      <c r="F1559" t="inlineStr"/>
+      <c r="G1559" t="n">
+        <v>6585779</v>
+      </c>
+      <c r="H1559" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1559" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1559" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1559" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1559" t="inlineStr"/>
+    </row>
+    <row r="1560">
+      <c r="A1560" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B1560" t="n">
+        <v>213.6900024414062</v>
+      </c>
+      <c r="C1560" t="n">
+        <v>213.6900024414062</v>
+      </c>
+      <c r="D1560" t="n">
+        <v>203.8000030517578</v>
+      </c>
+      <c r="E1560" t="n">
+        <v>210.1100006103516</v>
+      </c>
+      <c r="F1560" t="inlineStr"/>
+      <c r="G1560" t="n">
+        <v>6445532</v>
+      </c>
+      <c r="H1560" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1560" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1560" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1560" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1560" t="inlineStr"/>
+    </row>
+    <row r="1561">
+      <c r="A1561" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B1561" t="n">
+        <v>208</v>
+      </c>
+      <c r="C1561" t="n">
+        <v>214.75</v>
+      </c>
+      <c r="D1561" t="n">
+        <v>206.3999938964844</v>
+      </c>
+      <c r="E1561" t="n">
+        <v>210.9499969482422</v>
+      </c>
+      <c r="F1561" t="inlineStr"/>
+      <c r="G1561" t="n">
+        <v>5582434</v>
+      </c>
+      <c r="H1561" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1561" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1561" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1561" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1561" t="inlineStr"/>
+    </row>
+    <row r="1562">
+      <c r="A1562" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B1562" t="n">
+        <v>211.5500030517578</v>
+      </c>
+      <c r="C1562" t="n">
+        <v>211.8500061035156</v>
+      </c>
+      <c r="D1562" t="n">
+        <v>204.3000030517578</v>
+      </c>
+      <c r="E1562" t="n">
+        <v>205.4499969482422</v>
+      </c>
+      <c r="F1562" t="inlineStr"/>
+      <c r="G1562" t="n">
+        <v>3936784</v>
+      </c>
+      <c r="H1562" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1562" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1562" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1562" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1562" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1562"/>
+  <dimension ref="A1:R1566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87379,7 +87379,7 @@
         <v>3</v>
       </c>
       <c r="O1553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1553" t="n">
         <v>0</v>
@@ -87657,7 +87657,9 @@
       <c r="Q1558" t="n">
         <v>0</v>
       </c>
-      <c r="R1558" t="inlineStr"/>
+      <c r="R1558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1559">
       <c r="A1559" s="2" t="n">
@@ -87709,7 +87711,9 @@
       <c r="Q1559" t="n">
         <v>0</v>
       </c>
-      <c r="R1559" t="inlineStr"/>
+      <c r="R1559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1560">
       <c r="A1560" s="2" t="n">
@@ -87761,7 +87765,9 @@
       <c r="Q1560" t="n">
         <v>0</v>
       </c>
-      <c r="R1560" t="inlineStr"/>
+      <c r="R1560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1561">
       <c r="A1561" s="2" t="n">
@@ -87813,7 +87819,9 @@
       <c r="Q1561" t="n">
         <v>0</v>
       </c>
-      <c r="R1561" t="inlineStr"/>
+      <c r="R1561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1562">
       <c r="A1562" s="2" t="n">
@@ -87865,7 +87873,217 @@
       <c r="Q1562" t="n">
         <v>0</v>
       </c>
-      <c r="R1562" t="inlineStr"/>
+      <c r="R1562" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1563" t="n">
+        <v>203.6300048828125</v>
+      </c>
+      <c r="C1563" t="n">
+        <v>203.6300048828125</v>
+      </c>
+      <c r="D1563" t="n">
+        <v>195</v>
+      </c>
+      <c r="E1563" t="n">
+        <v>196.0700073242188</v>
+      </c>
+      <c r="F1563" t="inlineStr"/>
+      <c r="G1563" t="n">
+        <v>4757869</v>
+      </c>
+      <c r="H1563" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1563" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1563" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1563" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1563" t="inlineStr"/>
+    </row>
+    <row r="1564">
+      <c r="A1564" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1564" t="n">
+        <v>198</v>
+      </c>
+      <c r="C1564" t="n">
+        <v>201.0200042724609</v>
+      </c>
+      <c r="D1564" t="n">
+        <v>186.1999969482422</v>
+      </c>
+      <c r="E1564" t="n">
+        <v>187.8800048828125</v>
+      </c>
+      <c r="F1564" t="inlineStr"/>
+      <c r="G1564" t="n">
+        <v>10868685</v>
+      </c>
+      <c r="H1564" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1564" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1564" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1564" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1564" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1564" t="inlineStr"/>
+    </row>
+    <row r="1565">
+      <c r="A1565" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B1565" t="n">
+        <v>189.8000030517578</v>
+      </c>
+      <c r="C1565" t="n">
+        <v>200.6199951171875</v>
+      </c>
+      <c r="D1565" t="n">
+        <v>189.2100067138672</v>
+      </c>
+      <c r="E1565" t="n">
+        <v>194.1799926757812</v>
+      </c>
+      <c r="F1565" t="inlineStr"/>
+      <c r="G1565" t="n">
+        <v>11096358</v>
+      </c>
+      <c r="H1565" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1565" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1565" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1565" t="inlineStr"/>
+    </row>
+    <row r="1566">
+      <c r="A1566" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1566" t="n">
+        <v>206.3999938964844</v>
+      </c>
+      <c r="C1566" t="n">
+        <v>223</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>204.5599975585938</v>
+      </c>
+      <c r="E1566" t="n">
+        <v>221.4299926757812</v>
+      </c>
+      <c r="F1566" t="inlineStr"/>
+      <c r="G1566" t="n">
+        <v>31000599</v>
+      </c>
+      <c r="H1566" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1566" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1566" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1566" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1566"/>
+  <dimension ref="A1:R1573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87927,7 +87927,9 @@
       <c r="Q1563" t="n">
         <v>0</v>
       </c>
-      <c r="R1563" t="inlineStr"/>
+      <c r="R1563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1564">
       <c r="A1564" s="2" t="n">
@@ -87979,7 +87981,9 @@
       <c r="Q1564" t="n">
         <v>1</v>
       </c>
-      <c r="R1564" t="inlineStr"/>
+      <c r="R1564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1565">
       <c r="A1565" s="2" t="n">
@@ -88031,27 +88035,29 @@
       <c r="Q1565" t="n">
         <v>0</v>
       </c>
-      <c r="R1565" t="inlineStr"/>
+      <c r="R1565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1566">
       <c r="A1566" s="2" t="n">
-        <v>45688</v>
+        <v>45687</v>
       </c>
       <c r="B1566" t="n">
-        <v>206.3999938964844</v>
+        <v>196.1000061035156</v>
       </c>
       <c r="C1566" t="n">
-        <v>223</v>
+        <v>205.9100036621094</v>
       </c>
       <c r="D1566" t="n">
-        <v>204.5599975585938</v>
+        <v>195.1000061035156</v>
       </c>
       <c r="E1566" t="n">
-        <v>221.4299926757812</v>
+        <v>202.6999969482422</v>
       </c>
       <c r="F1566" t="inlineStr"/>
       <c r="G1566" t="n">
-        <v>31000599</v>
+        <v>12063956</v>
       </c>
       <c r="H1566" t="n">
         <v>2025</v>
@@ -88060,7 +88066,7 @@
         <v>1</v>
       </c>
       <c r="J1566" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K1566" t="n">
         <v>0</v>
@@ -88084,6 +88090,372 @@
         <v>0</v>
       </c>
       <c r="R1566" t="inlineStr"/>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1567" t="n">
+        <v>206.3999938964844</v>
+      </c>
+      <c r="C1567" t="n">
+        <v>223</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>204.5599975585938</v>
+      </c>
+      <c r="E1567" t="n">
+        <v>221.4299926757812</v>
+      </c>
+      <c r="F1567" t="inlineStr"/>
+      <c r="G1567" t="n">
+        <v>31000599</v>
+      </c>
+      <c r="H1567" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1567" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1567" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1567" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B1568" t="n">
+        <v>223</v>
+      </c>
+      <c r="C1568" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>199.3999938964844</v>
+      </c>
+      <c r="E1568" t="n">
+        <v>200.8800048828125</v>
+      </c>
+      <c r="F1568" t="inlineStr"/>
+      <c r="G1568" t="n">
+        <v>31619043</v>
+      </c>
+      <c r="H1568" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1568" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1568" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1568" t="inlineStr"/>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1569" t="n">
+        <v>192.8699951171875</v>
+      </c>
+      <c r="C1569" t="n">
+        <v>198.3999938964844</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>189.3500061035156</v>
+      </c>
+      <c r="E1569" t="n">
+        <v>195.5299987792969</v>
+      </c>
+      <c r="F1569" t="inlineStr"/>
+      <c r="G1569" t="n">
+        <v>11415365</v>
+      </c>
+      <c r="H1569" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1569" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1569" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1569" t="inlineStr"/>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1570" t="n">
+        <v>198.5</v>
+      </c>
+      <c r="C1570" t="n">
+        <v>201.7400054931641</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>190.3999938964844</v>
+      </c>
+      <c r="E1570" t="n">
+        <v>192.0399932861328</v>
+      </c>
+      <c r="F1570" t="inlineStr"/>
+      <c r="G1570" t="n">
+        <v>10243253</v>
+      </c>
+      <c r="H1570" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1570" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1570" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1570" t="inlineStr"/>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B1571" t="n">
+        <v>193.1199951171875</v>
+      </c>
+      <c r="C1571" t="n">
+        <v>197.7299957275391</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>193.1199951171875</v>
+      </c>
+      <c r="E1571" t="n">
+        <v>194.1699981689453</v>
+      </c>
+      <c r="F1571" t="inlineStr"/>
+      <c r="G1571" t="n">
+        <v>4088749</v>
+      </c>
+      <c r="H1571" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1571" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1571" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1571" t="inlineStr"/>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B1572" t="n">
+        <v>195</v>
+      </c>
+      <c r="C1572" t="n">
+        <v>195.3899993896484</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>190</v>
+      </c>
+      <c r="E1572" t="n">
+        <v>191.1199951171875</v>
+      </c>
+      <c r="F1572" t="inlineStr"/>
+      <c r="G1572" t="n">
+        <v>4162084</v>
+      </c>
+      <c r="H1572" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1572" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1572" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1572" t="inlineStr"/>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B1573" t="n">
+        <v>191.1999969482422</v>
+      </c>
+      <c r="C1573" t="n">
+        <v>191.9499969482422</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>187.6000061035156</v>
+      </c>
+      <c r="E1573" t="n">
+        <v>189.1999969482422</v>
+      </c>
+      <c r="F1573" t="inlineStr"/>
+      <c r="G1573" t="n">
+        <v>4139766</v>
+      </c>
+      <c r="H1573" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1573" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1573" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1573" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1573"/>
+  <dimension ref="A1:R1578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88089,7 +88089,9 @@
       <c r="Q1566" t="n">
         <v>0</v>
       </c>
-      <c r="R1566" t="inlineStr"/>
+      <c r="R1566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1567">
       <c r="A1567" s="2" t="n">
@@ -88187,7 +88189,7 @@
         <v>5</v>
       </c>
       <c r="O1568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1568" t="n">
         <v>0</v>
@@ -88195,7 +88197,9 @@
       <c r="Q1568" t="n">
         <v>0</v>
       </c>
-      <c r="R1568" t="inlineStr"/>
+      <c r="R1568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1569">
       <c r="A1569" s="2" t="n">
@@ -88247,7 +88251,9 @@
       <c r="Q1569" t="n">
         <v>0</v>
       </c>
-      <c r="R1569" t="inlineStr"/>
+      <c r="R1569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1570">
       <c r="A1570" s="2" t="n">
@@ -88299,7 +88305,9 @@
       <c r="Q1570" t="n">
         <v>0</v>
       </c>
-      <c r="R1570" t="inlineStr"/>
+      <c r="R1570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1571">
       <c r="A1571" s="2" t="n">
@@ -88351,7 +88359,9 @@
       <c r="Q1571" t="n">
         <v>0</v>
       </c>
-      <c r="R1571" t="inlineStr"/>
+      <c r="R1571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1572">
       <c r="A1572" s="2" t="n">
@@ -88403,7 +88413,9 @@
       <c r="Q1572" t="n">
         <v>0</v>
       </c>
-      <c r="R1572" t="inlineStr"/>
+      <c r="R1572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1573">
       <c r="A1573" s="2" t="n">
@@ -88455,7 +88467,269 @@
       <c r="Q1573" t="n">
         <v>0</v>
       </c>
-      <c r="R1573" t="inlineStr"/>
+      <c r="R1573" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1574" t="n">
+        <v>191</v>
+      </c>
+      <c r="C1574" t="n">
+        <v>193.0299987792969</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>186.4499969482422</v>
+      </c>
+      <c r="E1574" t="n">
+        <v>188.8699951171875</v>
+      </c>
+      <c r="F1574" t="inlineStr"/>
+      <c r="G1574" t="n">
+        <v>4591635</v>
+      </c>
+      <c r="H1574" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1574" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1574" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1574" t="inlineStr"/>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B1575" t="n">
+        <v>188.8699951171875</v>
+      </c>
+      <c r="C1575" t="n">
+        <v>189.3899993896484</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>177.4100036621094</v>
+      </c>
+      <c r="E1575" t="n">
+        <v>179.8500061035156</v>
+      </c>
+      <c r="F1575" t="inlineStr"/>
+      <c r="G1575" t="n">
+        <v>4785894</v>
+      </c>
+      <c r="H1575" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1575" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1575" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1575" t="inlineStr"/>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B1576" t="n">
+        <v>163.3300018310547</v>
+      </c>
+      <c r="C1576" t="n">
+        <v>171.9799957275391</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>159.6100006103516</v>
+      </c>
+      <c r="E1576" t="n">
+        <v>168.6000061035156</v>
+      </c>
+      <c r="F1576" t="inlineStr"/>
+      <c r="G1576" t="n">
+        <v>33265324</v>
+      </c>
+      <c r="H1576" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1576" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1576" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1576" t="inlineStr"/>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B1577" t="n">
+        <v>167</v>
+      </c>
+      <c r="C1577" t="n">
+        <v>172.6499938964844</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>166.0500030517578</v>
+      </c>
+      <c r="E1577" t="n">
+        <v>167.3399963378906</v>
+      </c>
+      <c r="F1577" t="inlineStr"/>
+      <c r="G1577" t="n">
+        <v>8256727</v>
+      </c>
+      <c r="H1577" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1577" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1577" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1577" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1577" t="inlineStr"/>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B1578" t="n">
+        <v>169.2899932861328</v>
+      </c>
+      <c r="C1578" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>156.7200012207031</v>
+      </c>
+      <c r="E1578" t="n">
+        <v>157.9199981689453</v>
+      </c>
+      <c r="F1578" t="inlineStr"/>
+      <c r="G1578" t="n">
+        <v>8140308</v>
+      </c>
+      <c r="H1578" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1578" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1578" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1578" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1578" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1578"/>
+  <dimension ref="A1:R1583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88521,7 +88521,9 @@
       <c r="Q1574" t="n">
         <v>0</v>
       </c>
-      <c r="R1574" t="inlineStr"/>
+      <c r="R1574" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1575">
       <c r="A1575" s="2" t="n">
@@ -88573,7 +88575,9 @@
       <c r="Q1575" t="n">
         <v>0</v>
       </c>
-      <c r="R1575" t="inlineStr"/>
+      <c r="R1575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1576">
       <c r="A1576" s="2" t="n">
@@ -88625,7 +88629,9 @@
       <c r="Q1576" t="n">
         <v>0</v>
       </c>
-      <c r="R1576" t="inlineStr"/>
+      <c r="R1576" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1577">
       <c r="A1577" s="2" t="n">
@@ -88677,7 +88683,9 @@
       <c r="Q1577" t="n">
         <v>0</v>
       </c>
-      <c r="R1577" t="inlineStr"/>
+      <c r="R1577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1578">
       <c r="A1578" s="2" t="n">
@@ -88729,7 +88737,269 @@
       <c r="Q1578" t="n">
         <v>0</v>
       </c>
-      <c r="R1578" t="inlineStr"/>
+      <c r="R1578" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1579" t="n">
+        <v>154</v>
+      </c>
+      <c r="C1579" t="n">
+        <v>157.7899932861328</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>150.7100067138672</v>
+      </c>
+      <c r="E1579" t="n">
+        <v>154.5399932861328</v>
+      </c>
+      <c r="F1579" t="inlineStr"/>
+      <c r="G1579" t="n">
+        <v>8824929</v>
+      </c>
+      <c r="H1579" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1579" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1579" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1579" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1579" t="inlineStr"/>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B1580" t="n">
+        <v>152.25</v>
+      </c>
+      <c r="C1580" t="n">
+        <v>154.8999938964844</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>146.5099945068359</v>
+      </c>
+      <c r="E1580" t="n">
+        <v>151.1000061035156</v>
+      </c>
+      <c r="F1580" t="inlineStr"/>
+      <c r="G1580" t="n">
+        <v>9052529</v>
+      </c>
+      <c r="H1580" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1580" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1580" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1580" t="inlineStr"/>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B1581" t="n">
+        <v>150</v>
+      </c>
+      <c r="C1581" t="n">
+        <v>164.1999969482422</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>148.2100067138672</v>
+      </c>
+      <c r="E1581" t="n">
+        <v>161.1600036621094</v>
+      </c>
+      <c r="F1581" t="inlineStr"/>
+      <c r="G1581" t="n">
+        <v>13881729</v>
+      </c>
+      <c r="H1581" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1581" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1581" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1581" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1581" t="inlineStr"/>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B1582" t="n">
+        <v>159.7899932861328</v>
+      </c>
+      <c r="C1582" t="n">
+        <v>163.9799957275391</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>157.3000030517578</v>
+      </c>
+      <c r="E1582" t="n">
+        <v>160.75</v>
+      </c>
+      <c r="F1582" t="inlineStr"/>
+      <c r="G1582" t="n">
+        <v>6230757</v>
+      </c>
+      <c r="H1582" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1582" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1582" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1582" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1582" t="inlineStr"/>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1583" t="n">
+        <v>160.8999938964844</v>
+      </c>
+      <c r="C1583" t="n">
+        <v>166.75</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>157.6999969482422</v>
+      </c>
+      <c r="E1583" t="n">
+        <v>158.6900024414062</v>
+      </c>
+      <c r="F1583" t="inlineStr"/>
+      <c r="G1583" t="n">
+        <v>7659782</v>
+      </c>
+      <c r="H1583" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1583" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1583" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1583" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1583" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1583"/>
+  <dimension ref="A1:R1592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88791,7 +88791,9 @@
       <c r="Q1579" t="n">
         <v>0</v>
       </c>
-      <c r="R1579" t="inlineStr"/>
+      <c r="R1579" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1580">
       <c r="A1580" s="2" t="n">
@@ -88843,7 +88845,9 @@
       <c r="Q1580" t="n">
         <v>0</v>
       </c>
-      <c r="R1580" t="inlineStr"/>
+      <c r="R1580" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1581">
       <c r="A1581" s="2" t="n">
@@ -88895,7 +88899,9 @@
       <c r="Q1581" t="n">
         <v>0</v>
       </c>
-      <c r="R1581" t="inlineStr"/>
+      <c r="R1581" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1582">
       <c r="A1582" s="2" t="n">
@@ -88947,7 +88953,9 @@
       <c r="Q1582" t="n">
         <v>0</v>
       </c>
-      <c r="R1582" t="inlineStr"/>
+      <c r="R1582" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1583">
       <c r="A1583" s="2" t="n">
@@ -88999,7 +89007,477 @@
       <c r="Q1583" t="n">
         <v>0</v>
       </c>
-      <c r="R1583" t="inlineStr"/>
+      <c r="R1583" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1584" t="n">
+        <v>156</v>
+      </c>
+      <c r="C1584" t="n">
+        <v>157.3000030517578</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>152.9700012207031</v>
+      </c>
+      <c r="E1584" t="n">
+        <v>154.9100036621094</v>
+      </c>
+      <c r="F1584" t="inlineStr"/>
+      <c r="G1584" t="n">
+        <v>5024103</v>
+      </c>
+      <c r="H1584" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1584" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1584" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1584" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1584" t="inlineStr"/>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B1585" t="n">
+        <v>155</v>
+      </c>
+      <c r="C1585" t="n">
+        <v>157.4900054931641</v>
+      </c>
+      <c r="D1585" t="n">
+        <v>153.1100006103516</v>
+      </c>
+      <c r="E1585" t="n">
+        <v>153.8399963378906</v>
+      </c>
+      <c r="F1585" t="inlineStr"/>
+      <c r="G1585" t="n">
+        <v>3253141</v>
+      </c>
+      <c r="H1585" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1585" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1585" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1585" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1585" t="inlineStr"/>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B1586" t="n">
+        <v>153.8399963378906</v>
+      </c>
+      <c r="C1586" t="n">
+        <v>154.6999969482422</v>
+      </c>
+      <c r="D1586" t="n">
+        <v>148</v>
+      </c>
+      <c r="E1586" t="n">
+        <v>148.8200073242188</v>
+      </c>
+      <c r="F1586" t="inlineStr"/>
+      <c r="G1586" t="n">
+        <v>4121223</v>
+      </c>
+      <c r="H1586" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1586" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1586" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1586" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1586" t="inlineStr"/>
+    </row>
+    <row r="1587">
+      <c r="A1587" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B1587" t="n">
+        <v>145.6999969482422</v>
+      </c>
+      <c r="C1587" t="n">
+        <v>148.3300018310547</v>
+      </c>
+      <c r="D1587" t="n">
+        <v>140</v>
+      </c>
+      <c r="E1587" t="n">
+        <v>141.6600036621094</v>
+      </c>
+      <c r="F1587" t="inlineStr"/>
+      <c r="G1587" t="n">
+        <v>6842142</v>
+      </c>
+      <c r="H1587" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1587" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1587" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1587" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1587" t="inlineStr"/>
+    </row>
+    <row r="1588">
+      <c r="A1588" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1588" t="n">
+        <v>141.9900054931641</v>
+      </c>
+      <c r="C1588" t="n">
+        <v>144.3999938964844</v>
+      </c>
+      <c r="D1588" t="n">
+        <v>134.2400054931641</v>
+      </c>
+      <c r="E1588" t="n">
+        <v>140.5599975585938</v>
+      </c>
+      <c r="F1588" t="inlineStr"/>
+      <c r="G1588" t="n">
+        <v>8228370</v>
+      </c>
+      <c r="H1588" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1588" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1588" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1588" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1588" t="inlineStr"/>
+    </row>
+    <row r="1589">
+      <c r="A1589" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B1589" t="n">
+        <v>137.6000061035156</v>
+      </c>
+      <c r="C1589" t="n">
+        <v>146.3300018310547</v>
+      </c>
+      <c r="D1589" t="n">
+        <v>137.3500061035156</v>
+      </c>
+      <c r="E1589" t="n">
+        <v>143.4199981689453</v>
+      </c>
+      <c r="F1589" t="inlineStr"/>
+      <c r="G1589" t="n">
+        <v>6794173</v>
+      </c>
+      <c r="H1589" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1589" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1589" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1589" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1589" t="inlineStr"/>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>144.1000061035156</v>
+      </c>
+      <c r="C1590" t="n">
+        <v>148.9900054931641</v>
+      </c>
+      <c r="D1590" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="E1590" t="n">
+        <v>147.8099975585938</v>
+      </c>
+      <c r="F1590" t="inlineStr"/>
+      <c r="G1590" t="n">
+        <v>5295595</v>
+      </c>
+      <c r="H1590" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1590" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1590" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1590" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1590" t="inlineStr"/>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B1591" t="n">
+        <v>149.7599945068359</v>
+      </c>
+      <c r="C1591" t="n">
+        <v>152.4499969482422</v>
+      </c>
+      <c r="D1591" t="n">
+        <v>147.8999938964844</v>
+      </c>
+      <c r="E1591" t="n">
+        <v>149.1600036621094</v>
+      </c>
+      <c r="F1591" t="inlineStr"/>
+      <c r="G1591" t="n">
+        <v>4122814</v>
+      </c>
+      <c r="H1591" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1591" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1591" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1591" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1591" t="inlineStr"/>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B1592" t="n">
+        <v>148</v>
+      </c>
+      <c r="C1592" t="n">
+        <v>155.3000030517578</v>
+      </c>
+      <c r="D1592" t="n">
+        <v>147.3999938964844</v>
+      </c>
+      <c r="E1592" t="n">
+        <v>151.9400024414062</v>
+      </c>
+      <c r="F1592" t="inlineStr"/>
+      <c r="G1592" t="n">
+        <v>6177963</v>
+      </c>
+      <c r="H1592" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1592" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1592" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1592" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1592" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1592"/>
+  <dimension ref="A1:R1601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89061,7 +89061,9 @@
       <c r="Q1584" t="n">
         <v>0</v>
       </c>
-      <c r="R1584" t="inlineStr"/>
+      <c r="R1584" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1585">
       <c r="A1585" s="2" t="n">
@@ -89113,7 +89115,9 @@
       <c r="Q1585" t="n">
         <v>0</v>
       </c>
-      <c r="R1585" t="inlineStr"/>
+      <c r="R1585" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1586">
       <c r="A1586" s="2" t="n">
@@ -89165,7 +89169,9 @@
       <c r="Q1586" t="n">
         <v>0</v>
       </c>
-      <c r="R1586" t="inlineStr"/>
+      <c r="R1586" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1587">
       <c r="A1587" s="2" t="n">
@@ -89217,7 +89223,9 @@
       <c r="Q1587" t="n">
         <v>0</v>
       </c>
-      <c r="R1587" t="inlineStr"/>
+      <c r="R1587" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1588">
       <c r="A1588" s="2" t="n">
@@ -89261,7 +89269,7 @@
         <v>10</v>
       </c>
       <c r="O1588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1588" t="n">
         <v>0</v>
@@ -89269,7 +89277,9 @@
       <c r="Q1588" t="n">
         <v>0</v>
       </c>
-      <c r="R1588" t="inlineStr"/>
+      <c r="R1588" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1589">
       <c r="A1589" s="2" t="n">
@@ -89321,7 +89331,9 @@
       <c r="Q1589" t="n">
         <v>0</v>
       </c>
-      <c r="R1589" t="inlineStr"/>
+      <c r="R1589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1590">
       <c r="A1590" s="2" t="n">
@@ -89373,7 +89385,9 @@
       <c r="Q1590" t="n">
         <v>0</v>
       </c>
-      <c r="R1590" t="inlineStr"/>
+      <c r="R1590" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1591">
       <c r="A1591" s="2" t="n">
@@ -89425,7 +89439,9 @@
       <c r="Q1591" t="n">
         <v>0</v>
       </c>
-      <c r="R1591" t="inlineStr"/>
+      <c r="R1591" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1592">
       <c r="A1592" s="2" t="n">
@@ -89477,7 +89493,477 @@
       <c r="Q1592" t="n">
         <v>0</v>
       </c>
-      <c r="R1592" t="inlineStr"/>
+      <c r="R1592" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1593" t="n">
+        <v>152.6999969482422</v>
+      </c>
+      <c r="C1593" t="n">
+        <v>154.1999969482422</v>
+      </c>
+      <c r="D1593" t="n">
+        <v>147</v>
+      </c>
+      <c r="E1593" t="n">
+        <v>148.1300048828125</v>
+      </c>
+      <c r="F1593" t="inlineStr"/>
+      <c r="G1593" t="n">
+        <v>4233561</v>
+      </c>
+      <c r="H1593" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1593" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1593" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1593" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1593" t="inlineStr"/>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B1594" t="n">
+        <v>145.8800048828125</v>
+      </c>
+      <c r="C1594" t="n">
+        <v>146.3500061035156</v>
+      </c>
+      <c r="D1594" t="n">
+        <v>141.5299987792969</v>
+      </c>
+      <c r="E1594" t="n">
+        <v>144.9299926757812</v>
+      </c>
+      <c r="F1594" t="inlineStr"/>
+      <c r="G1594" t="n">
+        <v>3834676</v>
+      </c>
+      <c r="H1594" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1594" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1594" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1594" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1594" t="inlineStr"/>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>146</v>
+      </c>
+      <c r="C1595" t="n">
+        <v>146.8999938964844</v>
+      </c>
+      <c r="D1595" t="n">
+        <v>142.6999969482422</v>
+      </c>
+      <c r="E1595" t="n">
+        <v>143.2799987792969</v>
+      </c>
+      <c r="F1595" t="inlineStr"/>
+      <c r="G1595" t="n">
+        <v>2841904</v>
+      </c>
+      <c r="H1595" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1595" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1595" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1595" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1595" t="inlineStr"/>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>144</v>
+      </c>
+      <c r="C1596" t="n">
+        <v>144.6000061035156</v>
+      </c>
+      <c r="D1596" t="n">
+        <v>140</v>
+      </c>
+      <c r="E1596" t="n">
+        <v>140.4499969482422</v>
+      </c>
+      <c r="F1596" t="inlineStr"/>
+      <c r="G1596" t="n">
+        <v>3092718</v>
+      </c>
+      <c r="H1596" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1596" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1596" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1596" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1596" t="inlineStr"/>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1597" t="n">
+        <v>142</v>
+      </c>
+      <c r="C1597" t="n">
+        <v>142.6499938964844</v>
+      </c>
+      <c r="D1597" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="E1597" t="n">
+        <v>138.1699981689453</v>
+      </c>
+      <c r="F1597" t="inlineStr"/>
+      <c r="G1597" t="n">
+        <v>3738672</v>
+      </c>
+      <c r="H1597" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1597" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1597" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1597" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1597" t="inlineStr"/>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B1598" t="n">
+        <v>138.1699981689453</v>
+      </c>
+      <c r="C1598" t="n">
+        <v>138.1699981689453</v>
+      </c>
+      <c r="D1598" t="n">
+        <v>138.1699981689453</v>
+      </c>
+      <c r="E1598" t="n">
+        <v>138.1699981689453</v>
+      </c>
+      <c r="F1598" t="inlineStr"/>
+      <c r="G1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1598" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1598" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1598" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1598" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1598" t="inlineStr"/>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B1599" t="n">
+        <v>146.2100067138672</v>
+      </c>
+      <c r="C1599" t="n">
+        <v>157.8999938964844</v>
+      </c>
+      <c r="D1599" t="n">
+        <v>146.1900024414062</v>
+      </c>
+      <c r="E1599" t="n">
+        <v>155.4199981689453</v>
+      </c>
+      <c r="F1599" t="inlineStr"/>
+      <c r="G1599" t="n">
+        <v>16838823</v>
+      </c>
+      <c r="H1599" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1599" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1599" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1599" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1599" t="inlineStr"/>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B1600" t="n">
+        <v>156.7700042724609</v>
+      </c>
+      <c r="C1600" t="n">
+        <v>162.8000030517578</v>
+      </c>
+      <c r="D1600" t="n">
+        <v>156.4499969482422</v>
+      </c>
+      <c r="E1600" t="n">
+        <v>159.6100006103516</v>
+      </c>
+      <c r="F1600" t="inlineStr"/>
+      <c r="G1600" t="n">
+        <v>11350103</v>
+      </c>
+      <c r="H1600" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1600" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1600" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1600" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1600" t="inlineStr"/>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B1601" t="n">
+        <v>159.3999938964844</v>
+      </c>
+      <c r="C1601" t="n">
+        <v>165.6999969482422</v>
+      </c>
+      <c r="D1601" t="n">
+        <v>156.7599945068359</v>
+      </c>
+      <c r="E1601" t="n">
+        <v>160.1000061035156</v>
+      </c>
+      <c r="F1601" t="inlineStr"/>
+      <c r="G1601" t="n">
+        <v>8969139</v>
+      </c>
+      <c r="H1601" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1601" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1601" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1601" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1601" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1601"/>
+  <dimension ref="A1:R1610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7803,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="Q131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R131" t="n">
         <v>0</v>
@@ -89547,7 +89547,9 @@
       <c r="Q1593" t="n">
         <v>0</v>
       </c>
-      <c r="R1593" t="inlineStr"/>
+      <c r="R1593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1594">
       <c r="A1594" s="2" t="n">
@@ -89599,7 +89601,9 @@
       <c r="Q1594" t="n">
         <v>0</v>
       </c>
-      <c r="R1594" t="inlineStr"/>
+      <c r="R1594" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1595">
       <c r="A1595" s="2" t="n">
@@ -89651,7 +89655,9 @@
       <c r="Q1595" t="n">
         <v>0</v>
       </c>
-      <c r="R1595" t="inlineStr"/>
+      <c r="R1595" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1596">
       <c r="A1596" s="2" t="n">
@@ -89703,7 +89709,9 @@
       <c r="Q1596" t="n">
         <v>0</v>
       </c>
-      <c r="R1596" t="inlineStr"/>
+      <c r="R1596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1597">
       <c r="A1597" s="2" t="n">
@@ -89755,7 +89763,9 @@
       <c r="Q1597" t="n">
         <v>0</v>
       </c>
-      <c r="R1597" t="inlineStr"/>
+      <c r="R1597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1598">
       <c r="A1598" s="2" t="n">
@@ -89807,7 +89817,9 @@
       <c r="Q1598" t="n">
         <v>0</v>
       </c>
-      <c r="R1598" t="inlineStr"/>
+      <c r="R1598" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1599">
       <c r="A1599" s="2" t="n">
@@ -89859,7 +89871,9 @@
       <c r="Q1599" t="n">
         <v>0</v>
       </c>
-      <c r="R1599" t="inlineStr"/>
+      <c r="R1599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1600">
       <c r="A1600" s="2" t="n">
@@ -89911,7 +89925,9 @@
       <c r="Q1600" t="n">
         <v>0</v>
       </c>
-      <c r="R1600" t="inlineStr"/>
+      <c r="R1600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1601">
       <c r="A1601" s="2" t="n">
@@ -89963,7 +89979,477 @@
       <c r="Q1601" t="n">
         <v>0</v>
       </c>
-      <c r="R1601" t="inlineStr"/>
+      <c r="R1601" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1602" t="n">
+        <v>161.8099975585938</v>
+      </c>
+      <c r="C1602" t="n">
+        <v>168.3999938964844</v>
+      </c>
+      <c r="D1602" t="n">
+        <v>161.5399932861328</v>
+      </c>
+      <c r="E1602" t="n">
+        <v>166.8899993896484</v>
+      </c>
+      <c r="F1602" t="inlineStr"/>
+      <c r="G1602" t="n">
+        <v>10883607</v>
+      </c>
+      <c r="H1602" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1602" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1602" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1602" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1602" t="inlineStr"/>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B1603" t="n">
+        <v>168.7599945068359</v>
+      </c>
+      <c r="C1603" t="n">
+        <v>170.6999969482422</v>
+      </c>
+      <c r="D1603" t="n">
+        <v>162.3399963378906</v>
+      </c>
+      <c r="E1603" t="n">
+        <v>163.9400024414062</v>
+      </c>
+      <c r="F1603" t="inlineStr"/>
+      <c r="G1603" t="n">
+        <v>8429998</v>
+      </c>
+      <c r="H1603" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1603" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1603" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1603" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1603" t="inlineStr"/>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B1604" t="n">
+        <v>163.6600036621094</v>
+      </c>
+      <c r="C1604" t="n">
+        <v>165.4199981689453</v>
+      </c>
+      <c r="D1604" t="n">
+        <v>156.8999938964844</v>
+      </c>
+      <c r="E1604" t="n">
+        <v>158.2100067138672</v>
+      </c>
+      <c r="F1604" t="inlineStr"/>
+      <c r="G1604" t="n">
+        <v>5972964</v>
+      </c>
+      <c r="H1604" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1604" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1604" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1604" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1604" t="inlineStr"/>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>157</v>
+      </c>
+      <c r="C1605" t="n">
+        <v>161.75</v>
+      </c>
+      <c r="D1605" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="E1605" t="n">
+        <v>159.7899932861328</v>
+      </c>
+      <c r="F1605" t="inlineStr"/>
+      <c r="G1605" t="n">
+        <v>8061064</v>
+      </c>
+      <c r="H1605" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1605" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1605" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1605" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1605" t="inlineStr"/>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>160</v>
+      </c>
+      <c r="C1606" t="n">
+        <v>163.8000030517578</v>
+      </c>
+      <c r="D1606" t="n">
+        <v>155.2100067138672</v>
+      </c>
+      <c r="E1606" t="n">
+        <v>156.4799957275391</v>
+      </c>
+      <c r="F1606" t="inlineStr"/>
+      <c r="G1606" t="n">
+        <v>7525794</v>
+      </c>
+      <c r="H1606" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1606" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1606" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1606" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1606" t="inlineStr"/>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>155.9799957275391</v>
+      </c>
+      <c r="C1607" t="n">
+        <v>159.8999938964844</v>
+      </c>
+      <c r="D1607" t="n">
+        <v>155</v>
+      </c>
+      <c r="E1607" t="n">
+        <v>159.2599945068359</v>
+      </c>
+      <c r="F1607" t="inlineStr"/>
+      <c r="G1607" t="n">
+        <v>4303452</v>
+      </c>
+      <c r="H1607" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1607" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1607" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1607" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1607" t="inlineStr"/>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>159.2599945068359</v>
+      </c>
+      <c r="C1608" t="n">
+        <v>161.7899932861328</v>
+      </c>
+      <c r="D1608" t="n">
+        <v>155.1499938964844</v>
+      </c>
+      <c r="E1608" t="n">
+        <v>160.7700042724609</v>
+      </c>
+      <c r="F1608" t="inlineStr"/>
+      <c r="G1608" t="n">
+        <v>3947735</v>
+      </c>
+      <c r="H1608" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1608" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1608" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1608" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1608" t="inlineStr"/>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>158</v>
+      </c>
+      <c r="C1609" t="n">
+        <v>162.5899963378906</v>
+      </c>
+      <c r="D1609" t="n">
+        <v>157.5500030517578</v>
+      </c>
+      <c r="E1609" t="n">
+        <v>160.3600006103516</v>
+      </c>
+      <c r="F1609" t="inlineStr"/>
+      <c r="G1609" t="n">
+        <v>3876859</v>
+      </c>
+      <c r="H1609" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1609" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1609" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1609" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1609" t="inlineStr"/>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>160</v>
+      </c>
+      <c r="C1610" t="n">
+        <v>160.7599945068359</v>
+      </c>
+      <c r="D1610" t="n">
+        <v>151.7700042724609</v>
+      </c>
+      <c r="E1610" t="n">
+        <v>154.1999969482422</v>
+      </c>
+      <c r="F1610" t="inlineStr"/>
+      <c r="G1610" t="n">
+        <v>4373385</v>
+      </c>
+      <c r="H1610" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1610" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1610" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1610" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1610" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1610"/>
+  <dimension ref="A1:R1614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90033,7 +90033,9 @@
       <c r="Q1602" t="n">
         <v>0</v>
       </c>
-      <c r="R1602" t="inlineStr"/>
+      <c r="R1602" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1603">
       <c r="A1603" s="2" t="n">
@@ -90077,7 +90079,7 @@
         <v>13</v>
       </c>
       <c r="O1603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1603" t="n">
         <v>0</v>
@@ -90085,7 +90087,9 @@
       <c r="Q1603" t="n">
         <v>0</v>
       </c>
-      <c r="R1603" t="inlineStr"/>
+      <c r="R1603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1604">
       <c r="A1604" s="2" t="n">
@@ -90137,7 +90141,9 @@
       <c r="Q1604" t="n">
         <v>0</v>
       </c>
-      <c r="R1604" t="inlineStr"/>
+      <c r="R1604" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1605">
       <c r="A1605" s="2" t="n">
@@ -90189,7 +90195,9 @@
       <c r="Q1605" t="n">
         <v>0</v>
       </c>
-      <c r="R1605" t="inlineStr"/>
+      <c r="R1605" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1606">
       <c r="A1606" s="2" t="n">
@@ -90241,7 +90249,9 @@
       <c r="Q1606" t="n">
         <v>0</v>
       </c>
-      <c r="R1606" t="inlineStr"/>
+      <c r="R1606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1607">
       <c r="A1607" s="2" t="n">
@@ -90293,7 +90303,9 @@
       <c r="Q1607" t="n">
         <v>0</v>
       </c>
-      <c r="R1607" t="inlineStr"/>
+      <c r="R1607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1608">
       <c r="A1608" s="2" t="n">
@@ -90345,7 +90357,9 @@
       <c r="Q1608" t="n">
         <v>0</v>
       </c>
-      <c r="R1608" t="inlineStr"/>
+      <c r="R1608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1609">
       <c r="A1609" s="2" t="n">
@@ -90397,7 +90411,9 @@
       <c r="Q1609" t="n">
         <v>0</v>
       </c>
-      <c r="R1609" t="inlineStr"/>
+      <c r="R1609" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1610">
       <c r="A1610" s="2" t="n">
@@ -90449,7 +90465,217 @@
       <c r="Q1610" t="n">
         <v>0</v>
       </c>
-      <c r="R1610" t="inlineStr"/>
+      <c r="R1610" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>135.5399932861328</v>
+      </c>
+      <c r="C1611" t="n">
+        <v>147</v>
+      </c>
+      <c r="D1611" t="n">
+        <v>135.5399932861328</v>
+      </c>
+      <c r="E1611" t="n">
+        <v>144.1100006103516</v>
+      </c>
+      <c r="F1611" t="inlineStr"/>
+      <c r="G1611" t="n">
+        <v>7437406</v>
+      </c>
+      <c r="H1611" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1611" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1611" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1611" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1611" t="inlineStr"/>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>148.7299957275391</v>
+      </c>
+      <c r="C1612" t="n">
+        <v>150.8000030517578</v>
+      </c>
+      <c r="D1612" t="n">
+        <v>145.8200073242188</v>
+      </c>
+      <c r="E1612" t="n">
+        <v>148.7200012207031</v>
+      </c>
+      <c r="F1612" t="inlineStr"/>
+      <c r="G1612" t="n">
+        <v>3351572</v>
+      </c>
+      <c r="H1612" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1612" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1612" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1612" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1612" t="inlineStr"/>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>149</v>
+      </c>
+      <c r="C1613" t="n">
+        <v>149.1999969482422</v>
+      </c>
+      <c r="D1613" t="n">
+        <v>144.6999969482422</v>
+      </c>
+      <c r="E1613" t="n">
+        <v>145.6900024414062</v>
+      </c>
+      <c r="F1613" t="inlineStr"/>
+      <c r="G1613" t="n">
+        <v>2836596</v>
+      </c>
+      <c r="H1613" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1613" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1613" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1613" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1613" t="inlineStr"/>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="C1614" t="n">
+        <v>150.8999938964844</v>
+      </c>
+      <c r="D1614" t="n">
+        <v>147.7899932861328</v>
+      </c>
+      <c r="E1614" t="n">
+        <v>149.6000061035156</v>
+      </c>
+      <c r="F1614" t="inlineStr"/>
+      <c r="G1614" t="n">
+        <v>2586337</v>
+      </c>
+      <c r="H1614" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1614" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1614" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1614" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1614" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1614"/>
+  <dimension ref="A1:R1617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90519,7 +90519,9 @@
       <c r="Q1611" t="n">
         <v>0</v>
       </c>
-      <c r="R1611" t="inlineStr"/>
+      <c r="R1611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1612">
       <c r="A1612" s="2" t="n">
@@ -90571,7 +90573,9 @@
       <c r="Q1612" t="n">
         <v>0</v>
       </c>
-      <c r="R1612" t="inlineStr"/>
+      <c r="R1612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1613">
       <c r="A1613" s="2" t="n">
@@ -90623,7 +90627,9 @@
       <c r="Q1613" t="n">
         <v>0</v>
       </c>
-      <c r="R1613" t="inlineStr"/>
+      <c r="R1613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1614">
       <c r="A1614" s="2" t="n">
@@ -90675,7 +90681,165 @@
       <c r="Q1614" t="n">
         <v>0</v>
       </c>
-      <c r="R1614" t="inlineStr"/>
+      <c r="R1614" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>153.9900054931641</v>
+      </c>
+      <c r="C1615" t="n">
+        <v>158.8999938964844</v>
+      </c>
+      <c r="D1615" t="n">
+        <v>153.0500030517578</v>
+      </c>
+      <c r="E1615" t="n">
+        <v>158.3099975585938</v>
+      </c>
+      <c r="F1615" t="inlineStr"/>
+      <c r="G1615" t="n">
+        <v>6483488</v>
+      </c>
+      <c r="H1615" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1615" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1615" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1615" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1615" t="inlineStr"/>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>158.6900024414062</v>
+      </c>
+      <c r="C1616" t="n">
+        <v>162.3000030517578</v>
+      </c>
+      <c r="D1616" t="n">
+        <v>157.5099945068359</v>
+      </c>
+      <c r="E1616" t="n">
+        <v>160.6100006103516</v>
+      </c>
+      <c r="F1616" t="inlineStr"/>
+      <c r="G1616" t="n">
+        <v>4629703</v>
+      </c>
+      <c r="H1616" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1616" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1616" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1616" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1616" t="inlineStr"/>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>160</v>
+      </c>
+      <c r="C1617" t="n">
+        <v>162.4400024414062</v>
+      </c>
+      <c r="D1617" t="n">
+        <v>159.0599975585938</v>
+      </c>
+      <c r="E1617" t="n">
+        <v>160.4700012207031</v>
+      </c>
+      <c r="F1617" t="inlineStr"/>
+      <c r="G1617" t="n">
+        <v>3177959</v>
+      </c>
+      <c r="H1617" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1617" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1617" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1617" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1617" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1617"/>
+  <dimension ref="A1:R1626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="Q146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R146" t="n">
         <v>0</v>
@@ -90511,7 +90511,7 @@
         <v>15</v>
       </c>
       <c r="O1611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1611" t="n">
         <v>0</v>
@@ -90735,7 +90735,9 @@
       <c r="Q1615" t="n">
         <v>0</v>
       </c>
-      <c r="R1615" t="inlineStr"/>
+      <c r="R1615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1616">
       <c r="A1616" s="2" t="n">
@@ -90787,7 +90789,9 @@
       <c r="Q1616" t="n">
         <v>0</v>
       </c>
-      <c r="R1616" t="inlineStr"/>
+      <c r="R1616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1617">
       <c r="A1617" s="2" t="n">
@@ -90839,7 +90843,477 @@
       <c r="Q1617" t="n">
         <v>0</v>
       </c>
-      <c r="R1617" t="inlineStr"/>
+      <c r="R1617" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>161.25</v>
+      </c>
+      <c r="C1618" t="n">
+        <v>163.6999969482422</v>
+      </c>
+      <c r="D1618" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="E1618" t="n">
+        <v>163.0099945068359</v>
+      </c>
+      <c r="F1618" t="inlineStr"/>
+      <c r="G1618" t="n">
+        <v>3770978</v>
+      </c>
+      <c r="H1618" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1618" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1618" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1618" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1618" t="inlineStr"/>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>163.8000030517578</v>
+      </c>
+      <c r="C1619" t="n">
+        <v>165.4600067138672</v>
+      </c>
+      <c r="D1619" t="n">
+        <v>161.6999969482422</v>
+      </c>
+      <c r="E1619" t="n">
+        <v>162.9700012207031</v>
+      </c>
+      <c r="F1619" t="inlineStr"/>
+      <c r="G1619" t="n">
+        <v>3451360</v>
+      </c>
+      <c r="H1619" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1619" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1619" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1619" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1619" t="inlineStr"/>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>163.7700042724609</v>
+      </c>
+      <c r="C1620" t="n">
+        <v>167.6499938964844</v>
+      </c>
+      <c r="D1620" t="n">
+        <v>159.1000061035156</v>
+      </c>
+      <c r="E1620" t="n">
+        <v>166.1000061035156</v>
+      </c>
+      <c r="F1620" t="inlineStr"/>
+      <c r="G1620" t="n">
+        <v>5706583</v>
+      </c>
+      <c r="H1620" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1620" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1620" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1620" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1620" t="inlineStr"/>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>165.6999969482422</v>
+      </c>
+      <c r="C1621" t="n">
+        <v>168.3000030517578</v>
+      </c>
+      <c r="D1621" t="n">
+        <v>163.6000061035156</v>
+      </c>
+      <c r="E1621" t="n">
+        <v>164.1999969482422</v>
+      </c>
+      <c r="F1621" t="inlineStr"/>
+      <c r="G1621" t="n">
+        <v>5055928</v>
+      </c>
+      <c r="H1621" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1621" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1621" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1621" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1621" t="inlineStr"/>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B1622" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="C1622" t="n">
+        <v>165.4900054931641</v>
+      </c>
+      <c r="D1622" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="E1622" t="n">
+        <v>156.3600006103516</v>
+      </c>
+      <c r="F1622" t="inlineStr"/>
+      <c r="G1622" t="n">
+        <v>5063459</v>
+      </c>
+      <c r="H1622" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1622" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1622" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1622" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1622" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1622" t="inlineStr"/>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1623" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="C1623" t="n">
+        <v>158.7799987792969</v>
+      </c>
+      <c r="D1623" t="n">
+        <v>153.0200042724609</v>
+      </c>
+      <c r="E1623" t="n">
+        <v>156.8099975585938</v>
+      </c>
+      <c r="F1623" t="inlineStr"/>
+      <c r="G1623" t="n">
+        <v>3736311</v>
+      </c>
+      <c r="H1623" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1623" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1623" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1623" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1623" t="inlineStr"/>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>157.3200073242188</v>
+      </c>
+      <c r="C1624" t="n">
+        <v>160.2400054931641</v>
+      </c>
+      <c r="D1624" t="n">
+        <v>156.5800018310547</v>
+      </c>
+      <c r="E1624" t="n">
+        <v>157.2299957275391</v>
+      </c>
+      <c r="F1624" t="inlineStr"/>
+      <c r="G1624" t="n">
+        <v>2444344</v>
+      </c>
+      <c r="H1624" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1624" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1624" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1624" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1624" t="inlineStr"/>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>156.1600036621094</v>
+      </c>
+      <c r="C1625" t="n">
+        <v>157.2299957275391</v>
+      </c>
+      <c r="D1625" t="n">
+        <v>150.9700012207031</v>
+      </c>
+      <c r="E1625" t="n">
+        <v>152.6499938964844</v>
+      </c>
+      <c r="F1625" t="inlineStr"/>
+      <c r="G1625" t="n">
+        <v>2608670</v>
+      </c>
+      <c r="H1625" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1625" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1625" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1625" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1625" t="inlineStr"/>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>153</v>
+      </c>
+      <c r="C1626" t="n">
+        <v>159.6000061035156</v>
+      </c>
+      <c r="D1626" t="n">
+        <v>152.1499938964844</v>
+      </c>
+      <c r="E1626" t="n">
+        <v>153.1000061035156</v>
+      </c>
+      <c r="F1626" t="inlineStr"/>
+      <c r="G1626" t="n">
+        <v>5854117</v>
+      </c>
+      <c r="H1626" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1626" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1626" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1626" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1626" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCON.NS.xlsx
+++ b/stock_historical_data/1d/IRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1626"/>
+  <dimension ref="A1:R1636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90897,7 +90897,9 @@
       <c r="Q1618" t="n">
         <v>0</v>
       </c>
-      <c r="R1618" t="inlineStr"/>
+      <c r="R1618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1619">
       <c r="A1619" s="2" t="n">
@@ -90949,7 +90951,9 @@
       <c r="Q1619" t="n">
         <v>0</v>
       </c>
-      <c r="R1619" t="inlineStr"/>
+      <c r="R1619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1620">
       <c r="A1620" s="2" t="n">
@@ -91001,7 +91005,9 @@
       <c r="Q1620" t="n">
         <v>0</v>
       </c>
-      <c r="R1620" t="inlineStr"/>
+      <c r="R1620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1621">
       <c r="A1621" s="2" t="n">
@@ -91045,7 +91051,7 @@
         <v>17</v>
       </c>
       <c r="O1621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1621" t="n">
         <v>0</v>
@@ -91053,7 +91059,9 @@
       <c r="Q1621" t="n">
         <v>0</v>
       </c>
-      <c r="R1621" t="inlineStr"/>
+      <c r="R1621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1622">
       <c r="A1622" s="2" t="n">
@@ -91105,7 +91113,9 @@
       <c r="Q1622" t="n">
         <v>0</v>
       </c>
-      <c r="R1622" t="inlineStr"/>
+      <c r="R1622" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1623">
       <c r="A1623" s="2" t="n">
@@ -91157,7 +91167,9 @@
       <c r="Q1623" t="n">
         <v>0</v>
       </c>
-      <c r="R1623" t="inlineStr"/>
+      <c r="R1623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1624">
       <c r="A1624" s="2" t="n">
@@ -91209,7 +91221,9 @@
       <c r="Q1624" t="n">
         <v>0</v>
       </c>
-      <c r="R1624" t="inlineStr"/>
+      <c r="R1624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1625">
       <c r="A1625" s="2" t="n">
@@ -91261,7 +91275,9 @@
       <c r="Q1625" t="n">
         <v>0</v>
       </c>
-      <c r="R1625" t="inlineStr"/>
+      <c r="R1625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1626">
       <c r="A1626" s="2" t="n">
@@ -91313,7 +91329,529 @@
       <c r="Q1626" t="n">
         <v>0</v>
       </c>
-      <c r="R1626" t="inlineStr"/>
+      <c r="R1626" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>160.9900054931641</v>
+      </c>
+      <c r="C1627" t="n">
+        <v>160.9900054931641</v>
+      </c>
+      <c r="D1627" t="n">
+        <v>157</v>
+      </c>
+      <c r="E1627" t="n">
+        <v>158.6999969482422</v>
+      </c>
+      <c r="F1627" t="inlineStr"/>
+      <c r="G1627" t="n">
+        <v>9692502</v>
+      </c>
+      <c r="H1627" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1627" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1627" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1627" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1627" t="inlineStr"/>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>161.3999938964844</v>
+      </c>
+      <c r="C1628" t="n">
+        <v>163.7400054931641</v>
+      </c>
+      <c r="D1628" t="n">
+        <v>155.1000061035156</v>
+      </c>
+      <c r="E1628" t="n">
+        <v>156.1000061035156</v>
+      </c>
+      <c r="F1628" t="inlineStr"/>
+      <c r="G1628" t="n">
+        <v>9668822</v>
+      </c>
+      <c r="H1628" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1628" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1628" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1628" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1628" t="inlineStr"/>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>152</v>
+      </c>
+      <c r="C1629" t="n">
+        <v>156.9700012207031</v>
+      </c>
+      <c r="D1629" t="n">
+        <v>151.1100006103516</v>
+      </c>
+      <c r="E1629" t="n">
+        <v>155.3999938964844</v>
+      </c>
+      <c r="F1629" t="inlineStr"/>
+      <c r="G1629" t="n">
+        <v>4579556</v>
+      </c>
+      <c r="H1629" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1629" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1629" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1629" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1629" t="inlineStr"/>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>156.8000030517578</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>157.8699951171875</v>
+      </c>
+      <c r="D1630" t="n">
+        <v>148.5500030517578</v>
+      </c>
+      <c r="E1630" t="n">
+        <v>151.9499969482422</v>
+      </c>
+      <c r="F1630" t="inlineStr"/>
+      <c r="G1630" t="n">
+        <v>3678630</v>
+      </c>
+      <c r="H1630" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1630" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1630" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1630" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1630" t="inlineStr"/>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>146.6699981689453</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>149.4400024414062</v>
+      </c>
+      <c r="D1631" t="n">
+        <v>145.3000030517578</v>
+      </c>
+      <c r="E1631" t="n">
+        <v>147.5099945068359</v>
+      </c>
+      <c r="F1631" t="inlineStr"/>
+      <c r="G1631" t="n">
+        <v>4309270</v>
+      </c>
+      <c r="H1631" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1631" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1631" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1631" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1631" t="inlineStr"/>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>154.9900054931641</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>160.9900054931641</v>
+      </c>
+      <c r="D1632" t="n">
+        <v>154.0200042724609</v>
+      </c>
+      <c r="E1632" t="n">
+        <v>160.25</v>
+      </c>
+      <c r="F1632" t="inlineStr"/>
+      <c r="G1632" t="n">
+        <v>7014101</v>
+      </c>
+      <c r="H1632" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1632" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1632" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1632" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1632" t="inlineStr"/>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>160.1900024414062</v>
+      </c>
+      <c r="C1633" t="n">
+        <v>161.6000061035156</v>
+      </c>
+      <c r="D1633" t="n">
+        <v>158.1699981689453</v>
+      </c>
+      <c r="E1633" t="n">
+        <v>160.3500061035156</v>
+      </c>
+      <c r="F1633" t="inlineStr"/>
+      <c r="G1633" t="n">
+        <v>3464141</v>
+      </c>
+      <c r="H1633" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1633" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1633" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1633" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1633" t="inlineStr"/>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>160.3500061035156</v>
+      </c>
+      <c r="C1634" t="n">
+        <v>173.8999938964844</v>
+      </c>
+      <c r="D1634" t="n">
+        <v>160.1000061035156</v>
+      </c>
+      <c r="E1634" t="n">
+        <v>172.8099975585938</v>
+      </c>
+      <c r="F1634" t="inlineStr"/>
+      <c r="G1634" t="n">
+        <v>22153964</v>
+      </c>
+      <c r="H1634" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1634" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1634" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1634" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1634" t="inlineStr"/>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>174.3399963378906</v>
+      </c>
+      <c r="C1635" t="n">
+        <v>180</v>
+      </c>
+      <c r="D1635" t="n">
+        <v>174.0599975585938</v>
+      </c>
+      <c r="E1635" t="n">
+        <v>177.5800018310547</v>
+      </c>
+      <c r="F1635" t="inlineStr"/>
+      <c r="G1635" t="n">
+        <v>14670167</v>
+      </c>
+      <c r="H1635" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1635" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1635" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1635" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1635" t="inlineStr"/>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>178.1000061035156</v>
+      </c>
+      <c r="C1636" t="n">
+        <v>192.3999938964844</v>
+      </c>
+      <c r="D1636" t="n">
+        <v>175.8600006103516</v>
+      </c>
+      <c r="E1636" t="n">
+        <v>188.8800048828125</v>
+      </c>
+      <c r="F1636" t="inlineStr"/>
+      <c r="G1636" t="n">
+        <v>28010716</v>
+      </c>
+      <c r="H1636" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1636" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1636" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1636" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1636" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
